--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AB4330-C7D7-2842-B286-0B9B7A1A8873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB69B50-9394-DF47-99A6-64B8E276EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31260" yWindow="1280" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="2" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>unit1</t>
   </si>
@@ -103,19 +103,55 @@
     <t>age</t>
   </si>
   <si>
-    <t>earnigs</t>
-  </si>
-  <si>
     <t>Row</t>
   </si>
   <si>
     <t>Optimized sample</t>
+  </si>
+  <si>
+    <t>OPT_AGE_DIFF</t>
+  </si>
+  <si>
+    <t>OPT_GPA_DIFF</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>OPTIMAL SQUARED DIFFERENCE</t>
+  </si>
+  <si>
+    <t>RANDOM MATCH 2 SQUARED DIFFERENCE</t>
+  </si>
+  <si>
+    <t>MAT2_AGE_DIFF</t>
+  </si>
+  <si>
+    <t>MAT2_GPA_DIFF</t>
+  </si>
+  <si>
+    <t>MAT1_AGE_DIFF</t>
+  </si>
+  <si>
+    <t>MAT1_GPA_DIFF</t>
+  </si>
+  <si>
+    <t>RANDOM MATCH 1 SQUARED DIFFERENCE</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>earnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -159,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -284,11 +320,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +398,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +737,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P12"/>
+      <selection activeCell="I2" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,19 +1493,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51201114-4A4E-3B4E-91D8-77E1E6A085FD}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1424,19 +1535,37 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
       <c r="M1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1602,7 @@
       <c r="L2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="21" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="21" t="s">
@@ -1482,11 +1611,41 @@
       <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -1523,20 +1682,56 @@
       <c r="L3" s="23">
         <v>8950</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="20">
+        <v>4</v>
+      </c>
+      <c r="N3" s="21">
+        <v>39</v>
+      </c>
+      <c r="O3" s="22">
+        <v>1.7649737959429348</v>
+      </c>
+      <c r="P3" s="21">
+        <v>12775</v>
+      </c>
+      <c r="Q3" s="12">
         <v>13</v>
       </c>
-      <c r="N3" s="13">
+      <c r="R3" s="13">
         <v>22</v>
       </c>
-      <c r="O3" s="14">
+      <c r="S3" s="14">
         <v>1.662291385973246</v>
       </c>
-      <c r="P3" s="15">
+      <c r="T3" s="13">
         <v>8950</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U3" s="20">
+        <f>(B3-J3)^2</f>
+        <v>16</v>
+      </c>
+      <c r="V3" s="23">
+        <f>(C3-K3)^2</f>
+        <v>0.14855198288527904</v>
+      </c>
+      <c r="W3" s="20">
+        <f>(B3-N3)^2</f>
+        <v>441</v>
+      </c>
+      <c r="X3" s="39">
+        <f>(C3-O3)^2</f>
+        <v>0.23824827664361628</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>(B3-R3)^2</f>
+        <v>16</v>
+      </c>
+      <c r="Z3" s="34">
+        <f>(C3-S3)^2</f>
+        <v>0.14855198288527904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1574,19 +1769,55 @@
         <v>12550</v>
       </c>
       <c r="M4" s="12">
+        <v>20</v>
+      </c>
+      <c r="N4" s="13">
+        <v>48</v>
+      </c>
+      <c r="O4" s="14">
+        <v>1.868726871191231</v>
+      </c>
+      <c r="P4" s="13">
+        <v>14800</v>
+      </c>
+      <c r="Q4" s="12">
         <v>5</v>
       </c>
-      <c r="N4" s="13">
+      <c r="R4" s="13">
         <v>38</v>
       </c>
-      <c r="O4" s="14">
+      <c r="S4" s="14">
         <v>1.6145408563338297</v>
       </c>
-      <c r="P4" s="15">
+      <c r="T4" s="13">
         <v>12550</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U4" s="12">
+        <f>(B4-J4)^2</f>
+        <v>81</v>
+      </c>
+      <c r="V4" s="15">
+        <f>(C4-K4)^2</f>
+        <v>1.4100184108490865</v>
+      </c>
+      <c r="W4" s="12">
+        <f>(B4-N4)^2</f>
+        <v>361</v>
+      </c>
+      <c r="X4" s="40">
+        <f>(C4-O4)^2</f>
+        <v>0.87096666109348142</v>
+      </c>
+      <c r="Y4" s="12">
+        <f t="shared" ref="Y4:Y12" si="0">(B4-R4)^2</f>
+        <v>81</v>
+      </c>
+      <c r="Z4" s="35">
+        <f t="shared" ref="Z4:Z12" si="1">(C4-S4)^2</f>
+        <v>1.4100184108490865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1624,19 +1855,55 @@
         <v>11425</v>
       </c>
       <c r="M5" s="12">
+        <v>12</v>
+      </c>
+      <c r="N5" s="13">
+        <v>36</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1.695532517371394</v>
+      </c>
+      <c r="P5" s="13">
+        <v>12100</v>
+      </c>
+      <c r="Q5" s="12">
         <v>1</v>
       </c>
-      <c r="N5" s="13">
+      <c r="R5" s="13">
         <v>20</v>
       </c>
-      <c r="O5" s="14">
+      <c r="S5" s="14">
         <v>1.8904439599777811</v>
       </c>
-      <c r="P5" s="15">
+      <c r="T5" s="13">
         <v>8500</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U5" s="12">
+        <f>(B5-J5)^2</f>
+        <v>81</v>
+      </c>
+      <c r="V5" s="15">
+        <f>(C5-K5)^2</f>
+        <v>3.7861128550266638</v>
+      </c>
+      <c r="W5" s="12">
+        <f>(B5-N5)^2</f>
+        <v>144</v>
+      </c>
+      <c r="X5" s="40">
+        <f>(C5-O5)^2</f>
+        <v>4.9507661264661218</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Z5" s="35">
+        <f t="shared" si="1"/>
+        <v>4.1213883146447721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1674,19 +1941,55 @@
         <v>10075</v>
       </c>
       <c r="M6" s="12">
+        <v>8</v>
+      </c>
+      <c r="N6" s="13">
+        <v>33</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1.9747705998072842</v>
+      </c>
+      <c r="P6" s="13">
+        <v>11425</v>
+      </c>
+      <c r="Q6" s="12">
         <v>20</v>
       </c>
-      <c r="N6" s="13">
+      <c r="R6" s="13">
         <v>48</v>
       </c>
-      <c r="O6" s="14">
+      <c r="S6" s="14">
         <v>1.868726871191231</v>
       </c>
-      <c r="P6" s="15">
+      <c r="T6" s="13">
         <v>14800</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U6" s="12">
+        <f>(B6-J6)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <f>(C6-K6)^2</f>
+        <v>0.2668348966511</v>
+      </c>
+      <c r="W6" s="12">
+        <f>(B6-N6)^2</f>
+        <v>36</v>
+      </c>
+      <c r="X6" s="40">
+        <f>(C6-O6)^2</f>
+        <v>0.10105866219074484</v>
+      </c>
+      <c r="Y6" s="12">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="Z6" s="35">
+        <f t="shared" si="1"/>
+        <v>0.17972595419433526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1724,19 +2027,55 @@
         <v>11425</v>
       </c>
       <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <v>20</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1.8904439599777811</v>
+      </c>
+      <c r="P7" s="13">
+        <v>8500</v>
+      </c>
+      <c r="Q7" s="12">
         <v>15</v>
       </c>
-      <c r="N7" s="13">
+      <c r="R7" s="13">
         <v>43</v>
       </c>
-      <c r="O7" s="14">
+      <c r="S7" s="14">
         <v>1.4539139447099576</v>
       </c>
-      <c r="P7" s="15">
+      <c r="T7" s="13">
         <v>13675</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U7" s="12">
+        <f>(B7-J7)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <f>(C7-K7)^2</f>
+        <v>0.27237925770439569</v>
+      </c>
+      <c r="W7" s="12">
+        <f>(B7-N7)^2</f>
+        <v>169</v>
+      </c>
+      <c r="X7" s="40">
+        <f>(C7-O7)^2</f>
+        <v>0.36751032962074809</v>
+      </c>
+      <c r="Y7" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Z7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0873407378627267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1774,19 +2113,55 @@
         <v>8950</v>
       </c>
       <c r="M8" s="12">
+        <v>15</v>
+      </c>
+      <c r="N8" s="13">
+        <v>43</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1.4539139447099576</v>
+      </c>
+      <c r="P8" s="13">
+        <v>13675</v>
+      </c>
+      <c r="Q8" s="12">
         <v>9</v>
       </c>
-      <c r="N8" s="13">
+      <c r="R8" s="13">
         <v>24</v>
       </c>
-      <c r="O8" s="14">
+      <c r="S8" s="14">
         <v>1.8147790419985577</v>
       </c>
-      <c r="P8" s="15">
+      <c r="T8" s="13">
         <v>9400</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U8" s="12">
+        <f>(B8-J8)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <f>(C8-K8)^2</f>
+        <v>0.10470633474131961</v>
+      </c>
+      <c r="W8" s="12">
+        <f>(B8-N8)^2</f>
+        <v>441</v>
+      </c>
+      <c r="X8" s="40">
+        <f>(C8-O8)^2</f>
+        <v>1.3272454935140789E-2</v>
+      </c>
+      <c r="Y8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.22664382397121624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1824,19 +2199,55 @@
         <v>8275</v>
       </c>
       <c r="M9" s="12">
+        <v>18</v>
+      </c>
+      <c r="N9" s="13">
+        <v>30</v>
+      </c>
+      <c r="O9" s="14">
+        <v>1.8636221604626391</v>
+      </c>
+      <c r="P9" s="13">
+        <v>9000</v>
+      </c>
+      <c r="Q9" s="12">
         <v>6</v>
       </c>
-      <c r="N9" s="13">
+      <c r="R9" s="13">
         <v>29</v>
       </c>
-      <c r="O9" s="14">
+      <c r="S9" s="14">
         <v>1.7375626797161705</v>
       </c>
-      <c r="P9" s="15">
+      <c r="T9" s="13">
         <v>10525</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U9" s="12">
+        <f>(B9-J9)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <f>(C9-K9)^2</f>
+        <v>3.8740846840094267E-2</v>
+      </c>
+      <c r="W9" s="12">
+        <f>(B9-N9)^2</f>
+        <v>121</v>
+      </c>
+      <c r="X9" s="40">
+        <f>(C9-O9)^2</f>
+        <v>4.0345831373700125E-2</v>
+      </c>
+      <c r="Y9" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Z9" s="35">
+        <f t="shared" si="1"/>
+        <v>5.5955242631467615E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1874,19 +2285,55 @@
         <v>8500</v>
       </c>
       <c r="M10" s="12">
+        <v>7</v>
+      </c>
+      <c r="N10" s="13">
+        <v>39</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1.5659991530066768</v>
+      </c>
+      <c r="P10" s="13">
+        <v>12775</v>
+      </c>
+      <c r="Q10" s="12">
         <v>17</v>
       </c>
-      <c r="N10" s="13">
+      <c r="R10" s="13">
         <v>19</v>
       </c>
-      <c r="O10" s="14">
+      <c r="S10" s="14">
         <v>1.8595863891608966</v>
       </c>
-      <c r="P10" s="15">
+      <c r="T10" s="13">
         <v>8275</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U10" s="12">
+        <f>(B10-J10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <f>(C10-K10)^2</f>
+        <v>0.50169013032157839</v>
+      </c>
+      <c r="W10" s="12">
+        <f>(B10-N10)^2</f>
+        <v>361</v>
+      </c>
+      <c r="X10" s="40">
+        <f>(C10-O10)^2</f>
+        <v>1.0665636447903046</v>
+      </c>
+      <c r="Y10" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.54635520885291511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1924,19 +2371,55 @@
         <v>8725</v>
       </c>
       <c r="M11" s="12">
+        <v>3</v>
+      </c>
+      <c r="N11" s="13">
+        <v>21</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1.837511566218393</v>
+      </c>
+      <c r="P11" s="13">
+        <v>8725</v>
+      </c>
+      <c r="Q11" s="12">
         <v>5</v>
       </c>
-      <c r="N11" s="13">
+      <c r="R11" s="13">
         <v>38</v>
       </c>
-      <c r="O11" s="14">
+      <c r="S11" s="14">
         <v>1.6145408563338297</v>
       </c>
-      <c r="P11" s="15">
+      <c r="T11" s="13">
         <v>12550</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="12">
+        <f>(B11-J11)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f>(C11-K11)^2</f>
+        <v>1.0778625310626854E-2</v>
+      </c>
+      <c r="W11" s="12">
+        <f>(B11-N11)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="40">
+        <f>(C11-O11)^2</f>
+        <v>1.0778625310626854E-2</v>
+      </c>
+      <c r="Y11" s="12">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="Z11" s="35">
+        <f t="shared" si="1"/>
+        <v>0.10679227165847219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -1974,19 +2457,66 @@
         <v>10750</v>
       </c>
       <c r="M12" s="16">
+        <v>11</v>
+      </c>
+      <c r="N12" s="17">
+        <v>33</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1.644189622274975</v>
+      </c>
+      <c r="P12" s="17">
+        <v>11425</v>
+      </c>
+      <c r="Q12" s="16">
         <v>18</v>
       </c>
-      <c r="N12" s="17">
+      <c r="R12" s="17">
         <v>30</v>
       </c>
-      <c r="O12" s="18">
+      <c r="S12" s="18">
         <v>1.8636221604626391</v>
       </c>
-      <c r="P12" s="19">
+      <c r="T12" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U12" s="16">
+        <f>(B12-J12)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <f>(C12-K12)^2</f>
+        <v>1.8463932101759739</v>
+      </c>
+      <c r="W12" s="16">
+        <f>(B12-N12)^2</f>
+        <v>9</v>
+      </c>
+      <c r="X12" s="41">
+        <f>(C12-O12)^2</f>
+        <v>2.9923439547006838</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2813285432360439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.VAR.P(B3:B12)</f>
+        <v>24.01</v>
+      </c>
+      <c r="C13" s="1">
+        <f>_xlfn.VAR.P(C3:C12)</f>
+        <v>0.6615729701647638</v>
+      </c>
       <c r="E13" s="12">
         <v>11</v>
       </c>
@@ -1999,8 +2529,53 @@
       <c r="H13" s="15">
         <v>11425</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f>_xlfn.VAR.P(J3:J12)</f>
+        <v>39.85</v>
+      </c>
+      <c r="K13" s="1">
+        <f>_xlfn.VAR.P(K3:K12)</f>
+        <v>1.8627840397090679E-2</v>
+      </c>
+      <c r="N13">
+        <f>_xlfn.VAR.P(N3:N12)</f>
+        <v>71.36</v>
+      </c>
+      <c r="O13" s="1">
+        <f>_xlfn.VAR.P(O3:O12)</f>
+        <v>2.40464468774555E-2</v>
+      </c>
+      <c r="R13">
+        <f>_xlfn.VAR.P(R3:R12)</f>
+        <v>93.09</v>
+      </c>
+      <c r="S13" s="1">
+        <f>_xlfn.VAR.P(S3:S12)</f>
+        <v>1.9370906690393069E-2</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="19">
+        <f>SUM(U3:V12)</f>
+        <v>186.38620655050607</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="32">
+        <f>SUM(W3:X12)</f>
+        <v>2093.6518545671252</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" s="33">
+        <f>SUM(Y3:Z12)</f>
+        <v>1058.1137407724179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E14" s="12">
         <v>12</v>
       </c>
@@ -2014,7 +2589,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E15" s="12">
         <v>13</v>
       </c>
@@ -2028,7 +2603,7 @@
         <v>8950</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E16" s="12">
         <v>14</v>
       </c>
@@ -2128,9 +2703,18 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f>SQRT(V13)</f>
+        <v>13.652333373841486</v>
+      </c>
+      <c r="C26"/>
+      <c r="E26" s="1"/>
+      <c r="G26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2139,8 +2723,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>SQRT((B3-N3)^2 + (C3-O3)^2)</f>
-        <v>4.0185260958323115</v>
+        <f>SQRT(X13)</f>
+        <v>45.756440580175436</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2148,11 +2732,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f>SQRT(Z13)</f>
+        <v>32.528660297842237</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="G34"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,15 +2764,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>19</v>
@@ -2186,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB69B50-9394-DF47-99A6-64B8E276EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300E2F2-BEF2-7F43-B6FA-189346937138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="2" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="3" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="bias adjustment" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>unit1</t>
   </si>
@@ -1496,7 +1497,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="I3" sqref="I3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2764,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3400,4 +3401,376 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>18</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1.2768669668126549</v>
+      </c>
+      <c r="E2" s="21">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2.8019828173782786</v>
+      </c>
+      <c r="E3" s="13">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3.9205642309579938</v>
+      </c>
+      <c r="E4" s="13">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.2926678508031757</v>
+      </c>
+      <c r="E5" s="13">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.4966702622946206</v>
+      </c>
+      <c r="E6" s="13">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.3387078036620916</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1.662759442733091</v>
+      </c>
+      <c r="E8" s="13">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2.598744835539557</v>
+      </c>
+      <c r="E9" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1.9413317247167639</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17">
+        <v>30</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3.3740289080760242</v>
+      </c>
+      <c r="E11" s="17">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="20">
+        <v>13</v>
+      </c>
+      <c r="C12" s="21">
+        <v>22</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1.662291385973246</v>
+      </c>
+      <c r="E12" s="23">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.6145408563338297</v>
+      </c>
+      <c r="E13" s="15">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.9747705998072842</v>
+      </c>
+      <c r="E14" s="15">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.77610720900872</v>
+      </c>
+      <c r="E15" s="15">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>33</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1.9747705998072842</v>
+      </c>
+      <c r="E16" s="15">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.662291385973246</v>
+      </c>
+      <c r="E17" s="15">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1.8595863891608966</v>
+      </c>
+      <c r="E18" s="15">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.8904439599777811</v>
+      </c>
+      <c r="E19" s="15">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1.837511566218393</v>
+      </c>
+      <c r="E20" s="15">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="16">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17">
+        <v>30</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2.0152083863823114</v>
+      </c>
+      <c r="E21" s="19">
+        <v>10750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300E2F2-BEF2-7F43-B6FA-189346937138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16731CE7-AA09-734F-9009-B36B6950AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="3" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="4" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="bias adjustment" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="bias adjustment" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>unit1</t>
   </si>
@@ -144,6 +145,9 @@
   </si>
   <si>
     <t>earnings</t>
+  </si>
+  <si>
+    <t>naynum11</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1501,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:L12"/>
+      <selection activeCell="I12" sqref="I12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1671,17 +1675,17 @@
       <c r="H3" s="23">
         <v>8500</v>
       </c>
-      <c r="I3" s="20">
-        <v>13</v>
-      </c>
-      <c r="J3" s="21">
-        <v>22</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1.662291385973246</v>
-      </c>
-      <c r="L3" s="23">
-        <v>8950</v>
+      <c r="I3" s="12">
+        <v>14</v>
+      </c>
+      <c r="J3" s="13">
+        <v>18</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="L3" s="15">
+        <v>8050</v>
       </c>
       <c r="M3" s="20">
         <v>4</v>
@@ -1709,11 +1713,11 @@
       </c>
       <c r="U3" s="20">
         <f>(B3-J3)^2</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V3" s="23">
         <f>(C3-K3)^2</f>
-        <v>0.14855198288527904</v>
+        <v>0.37593211638551394</v>
       </c>
       <c r="W3" s="20">
         <f>(B3-N3)^2</f>
@@ -1758,16 +1762,16 @@
         <v>10075</v>
       </c>
       <c r="I4" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="13">
-        <v>38</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1.6145408563338297</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1.74</v>
       </c>
       <c r="L4" s="15">
-        <v>12550</v>
+        <v>10525</v>
       </c>
       <c r="M4" s="12">
         <v>20</v>
@@ -1795,11 +1799,11 @@
       </c>
       <c r="U4" s="12">
         <f>(B4-J4)^2</f>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15">
         <f>(C4-K4)^2</f>
-        <v>1.4100184108490865</v>
+        <v>1.1278075044067062</v>
       </c>
       <c r="W4" s="12">
         <f>(B4-N4)^2</f>
@@ -1844,16 +1848,16 @@
         <v>8725</v>
       </c>
       <c r="I5" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="13">
-        <v>33</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1.9747705998072842</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1.81</v>
       </c>
       <c r="L5" s="15">
-        <v>11425</v>
+        <v>9400</v>
       </c>
       <c r="M5" s="12">
         <v>12</v>
@@ -1881,11 +1885,11 @@
       </c>
       <c r="U5" s="12">
         <f>(B5-J5)^2</f>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="V5" s="15">
         <f>(C5-K5)^2</f>
-        <v>3.7861128550266638</v>
+        <v>4.4544813729993074</v>
       </c>
       <c r="W5" s="12">
         <f>(B5-N5)^2</f>
@@ -1935,8 +1939,8 @@
       <c r="J6" s="13">
         <v>27</v>
       </c>
-      <c r="K6" s="14">
-        <v>1.77610720900872</v>
+      <c r="K6" s="13">
+        <v>1.78</v>
       </c>
       <c r="L6" s="15">
         <v>10075</v>
@@ -1971,7 +1975,7 @@
       </c>
       <c r="V6" s="15">
         <f>(C6-K6)^2</f>
-        <v>0.2668348966511</v>
+        <v>0.26282832524714717</v>
       </c>
       <c r="W6" s="12">
         <f>(B6-N6)^2</f>
@@ -2021,8 +2025,8 @@
       <c r="J7" s="13">
         <v>33</v>
       </c>
-      <c r="K7" s="14">
-        <v>1.9747705998072842</v>
+      <c r="K7" s="13">
+        <v>1.97</v>
       </c>
       <c r="L7" s="15">
         <v>11425</v>
@@ -2057,7 +2061,7 @@
       </c>
       <c r="V7" s="15">
         <f>(C7-K7)^2</f>
-        <v>0.27237925770439569</v>
+        <v>0.27738156518548451</v>
       </c>
       <c r="W7" s="12">
         <f>(B7-N7)^2</f>
@@ -2107,8 +2111,8 @@
       <c r="J8" s="13">
         <v>22</v>
       </c>
-      <c r="K8" s="14">
-        <v>1.662291385973246</v>
+      <c r="K8" s="13">
+        <v>1.66</v>
       </c>
       <c r="L8" s="15">
         <v>8950</v>
@@ -2143,7 +2147,7 @@
       </c>
       <c r="V8" s="15">
         <f>(C8-K8)^2</f>
-        <v>0.10470633474131961</v>
+        <v>0.103228675427637</v>
       </c>
       <c r="W8" s="12">
         <f>(B8-N8)^2</f>
@@ -2193,8 +2197,8 @@
       <c r="J9" s="13">
         <v>19</v>
       </c>
-      <c r="K9" s="14">
-        <v>1.8595863891608966</v>
+      <c r="K9" s="13">
+        <v>1.86</v>
       </c>
       <c r="L9" s="15">
         <v>8275</v>
@@ -2229,7 +2233,7 @@
       </c>
       <c r="V9" s="15">
         <f>(C9-K9)^2</f>
-        <v>3.8740846840094267E-2</v>
+        <v>3.8903837430960868E-2</v>
       </c>
       <c r="W9" s="12">
         <f>(B9-N9)^2</f>
@@ -2274,16 +2278,16 @@
         <v>11425</v>
       </c>
       <c r="I10" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="13">
-        <v>20</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1.8904439599777811</v>
+        <v>27</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1.78</v>
       </c>
       <c r="L10" s="15">
-        <v>8500</v>
+        <v>10075</v>
       </c>
       <c r="M10" s="12">
         <v>7</v>
@@ -2311,11 +2315,11 @@
       </c>
       <c r="U10" s="12">
         <f>(B10-J10)^2</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V10" s="15">
         <f>(C10-K10)^2</f>
-        <v>0.50169013032157839</v>
+        <v>0.67034310572269629</v>
       </c>
       <c r="W10" s="12">
         <f>(B10-N10)^2</f>
@@ -2365,8 +2369,8 @@
       <c r="J11" s="13">
         <v>21</v>
       </c>
-      <c r="K11" s="14">
-        <v>1.837511566218393</v>
+      <c r="K11" s="13">
+        <v>1.84</v>
       </c>
       <c r="L11" s="15">
         <v>8725</v>
@@ -2401,7 +2405,7 @@
       </c>
       <c r="V11" s="15">
         <f>(C11-K11)^2</f>
-        <v>1.0778625310626854E-2</v>
+        <v>1.0268118434073993E-2</v>
       </c>
       <c r="W11" s="12">
         <f>(B11-N11)^2</f>
@@ -2451,8 +2455,8 @@
       <c r="J12" s="17">
         <v>30</v>
       </c>
-      <c r="K12" s="18">
-        <v>2.0152083863823114</v>
+      <c r="K12" s="17">
+        <v>2.02</v>
       </c>
       <c r="L12" s="19">
         <v>10750</v>
@@ -2487,7 +2491,7 @@
       </c>
       <c r="V12" s="19">
         <f>(C12-K12)^2</f>
-        <v>1.8463932101759739</v>
+        <v>1.8333942839055504</v>
       </c>
       <c r="W12" s="16">
         <f>(B12-N12)^2</f>
@@ -2532,11 +2536,11 @@
       </c>
       <c r="J13">
         <f>_xlfn.VAR.P(J3:J12)</f>
-        <v>39.85</v>
+        <v>22.4</v>
       </c>
       <c r="K13" s="1">
         <f>_xlfn.VAR.P(K3:K12)</f>
-        <v>1.8627840397090679E-2</v>
+        <v>1.0245000000000001E-2</v>
       </c>
       <c r="N13">
         <f>_xlfn.VAR.P(N3:N12)</f>
@@ -2559,7 +2563,7 @@
       </c>
       <c r="V13" s="19">
         <f>SUM(U3:V12)</f>
-        <v>186.38620655050607</v>
+        <v>58.154568905145076</v>
       </c>
       <c r="W13" s="28" t="s">
         <v>26</v>
@@ -2711,7 +2715,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>SQRT(V13)</f>
-        <v>13.652333373841486</v>
+        <v>7.6259142996197564</v>
       </c>
       <c r="C26"/>
       <c r="E26" s="1"/>
@@ -2762,6 +2766,863 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB576F-07AE-9345-9BCA-5BFB12B54D5D}">
+  <dimension ref="A2:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1.28</v>
+      </c>
+      <c r="F4">
+        <v>9500</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>1.89</v>
+      </c>
+      <c r="L4">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>2.8</v>
+      </c>
+      <c r="F5">
+        <v>12250</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>1.74</v>
+      </c>
+      <c r="L5">
+        <v>10525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3.92</v>
+      </c>
+      <c r="F6">
+        <v>11000</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>1.81</v>
+      </c>
+      <c r="L6">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2.29</v>
+      </c>
+      <c r="F7">
+        <v>11750</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>1.78</v>
+      </c>
+      <c r="L7">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>13250</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>1.97</v>
+      </c>
+      <c r="L8">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1.34</v>
+      </c>
+      <c r="F10">
+        <v>10500</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>1.66</v>
+      </c>
+      <c r="L10">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>1.66</v>
+      </c>
+      <c r="F11">
+        <v>9750</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>1.86</v>
+      </c>
+      <c r="L11">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2.6</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>1.78</v>
+      </c>
+      <c r="L12">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1.94</v>
+      </c>
+      <c r="F13">
+        <v>10250</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>1.84</v>
+      </c>
+      <c r="L13">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>3.37</v>
+      </c>
+      <c r="F14">
+        <v>12500</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>2.02</v>
+      </c>
+      <c r="L14">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1.89</v>
+      </c>
+      <c r="F16">
+        <v>8500</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1.78</v>
+      </c>
+      <c r="F17">
+        <v>10075</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1.84</v>
+      </c>
+      <c r="F18">
+        <v>8725</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>1.76</v>
+      </c>
+      <c r="F19">
+        <v>12775</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>1.61</v>
+      </c>
+      <c r="F20">
+        <v>12550</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>1.74</v>
+      </c>
+      <c r="F22">
+        <v>10525</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>1.57</v>
+      </c>
+      <c r="F23">
+        <v>12775</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>1.97</v>
+      </c>
+      <c r="F24">
+        <v>11425</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1.81</v>
+      </c>
+      <c r="F25">
+        <v>9400</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>2.02</v>
+      </c>
+      <c r="F26">
+        <v>10750</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>1.64</v>
+      </c>
+      <c r="F28">
+        <v>11425</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>1.7</v>
+      </c>
+      <c r="F29">
+        <v>12100</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>1.66</v>
+      </c>
+      <c r="F30">
+        <v>8950</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>1.89</v>
+      </c>
+      <c r="F31">
+        <v>8050</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>1.45</v>
+      </c>
+      <c r="F32">
+        <v>13675</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>1.88</v>
+      </c>
+      <c r="F34">
+        <v>12775</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>1.86</v>
+      </c>
+      <c r="F35">
+        <v>8275</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>1.86</v>
+      </c>
+      <c r="F36">
+        <v>9000</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <v>1.96</v>
+      </c>
+      <c r="F37">
+        <v>15475</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>1.87</v>
+      </c>
+      <c r="F38">
+        <v>14800</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -3403,12 +4264,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B17" sqref="B17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3604,67 +4465,67 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="20">
-        <v>13</v>
-      </c>
-      <c r="C12" s="21">
-        <v>22</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1.662291385973246</v>
-      </c>
-      <c r="E12" s="23">
-        <v>8950</v>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1.89</v>
+      </c>
+      <c r="E12">
+        <v>8050</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>38</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1.6145408563338297</v>
-      </c>
-      <c r="E13" s="15">
-        <v>12550</v>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>1.74</v>
+      </c>
+      <c r="E13">
+        <v>10525</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="12">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13">
-        <v>33</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1.9747705998072842</v>
-      </c>
-      <c r="E14" s="15">
-        <v>11425</v>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>1.81</v>
+      </c>
+      <c r="E14">
+        <v>9400</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" s="14">
-        <v>1.77610720900872</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15">
+        <v>1.78</v>
+      </c>
+      <c r="E15">
         <v>10075</v>
       </c>
     </row>
@@ -3672,16 +4533,16 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>33</v>
       </c>
-      <c r="D16" s="14">
-        <v>1.9747705998072842</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16">
+        <v>1.97</v>
+      </c>
+      <c r="E16">
         <v>11425</v>
       </c>
     </row>
@@ -3689,16 +4550,16 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
-        <v>1.662291385973246</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17">
+        <v>1.66</v>
+      </c>
+      <c r="E17">
         <v>8950</v>
       </c>
     </row>
@@ -3706,16 +4567,16 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" s="14">
-        <v>1.8595863891608966</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18">
+        <v>1.86</v>
+      </c>
+      <c r="E18">
         <v>8275</v>
       </c>
     </row>
@@ -3723,50 +4584,50 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1.8904439599777811</v>
-      </c>
-      <c r="E19" s="15">
-        <v>8500</v>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1.78</v>
+      </c>
+      <c r="E19">
+        <v>10075</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" s="14">
-        <v>1.837511566218393</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D20">
+        <v>1.84</v>
+      </c>
+      <c r="E20">
         <v>8725</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21">
         <v>30</v>
       </c>
-      <c r="D21" s="18">
-        <v>2.0152083863823114</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21">
+        <v>2.02</v>
+      </c>
+      <c r="E21">
         <v>10750</v>
       </c>
     </row>

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16731CE7-AA09-734F-9009-B36B6950AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F910D63-F1CD-8144-8162-89B83C4E849D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="4" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>unit1</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>naynum11</t>
+  </si>
+  <si>
+    <t>matched</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +428,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,7 +1505,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:L12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2770,7 +2774,7 @@
   <dimension ref="A2:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:L14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4266,15 +4270,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E21"/>
+      <selection activeCell="F12" sqref="F12:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4290,8 +4294,11 @@
       <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4307,8 +4314,11 @@
       <c r="E2" s="21">
         <v>9500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4324,8 +4334,11 @@
       <c r="E3" s="13">
         <v>12250</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4341,8 +4354,11 @@
       <c r="E4" s="13">
         <v>11000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4358,8 +4374,11 @@
       <c r="E5" s="13">
         <v>11750</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4375,8 +4394,11 @@
       <c r="E6" s="13">
         <v>13250</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4392,8 +4414,11 @@
       <c r="E7" s="13">
         <v>10500</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4409,8 +4434,11 @@
       <c r="E8" s="13">
         <v>9750</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4426,8 +4454,11 @@
       <c r="E9" s="13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4443,8 +4474,11 @@
       <c r="E10" s="13">
         <v>10250</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4460,8 +4494,11 @@
       <c r="E11" s="17">
         <v>12500</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4477,8 +4514,11 @@
       <c r="E12">
         <v>8050</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4494,8 +4534,11 @@
       <c r="E13">
         <v>10525</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4511,8 +4554,11 @@
       <c r="E14">
         <v>9400</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4528,8 +4574,11 @@
       <c r="E15">
         <v>10075</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4545,8 +4594,11 @@
       <c r="E16">
         <v>11425</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4562,8 +4614,11 @@
       <c r="E17">
         <v>8950</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4579,8 +4634,11 @@
       <c r="E18">
         <v>8275</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4596,8 +4654,11 @@
       <c r="E19">
         <v>10075</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4613,8 +4674,11 @@
       <c r="E20">
         <v>8725</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4629,6 +4693,9 @@
       </c>
       <c r="E21">
         <v>10750</v>
+      </c>
+      <c r="F21" s="17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F910D63-F1CD-8144-8162-89B83C4E849D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F2D5C-7911-EF41-9799-CEA36E69D906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="4" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="2" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="bias adjustment" sheetId="4" r:id="rId5"/>
+    <sheet name="reshaped data" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="bias adjustment" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>unit1</t>
   </si>
@@ -1505,7 +1506,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A2" sqref="A2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2770,6 +2771,551 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36857C37-1F30-AD4A-99A6-5D8EF28DF0EA}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.2768669668126549</v>
+      </c>
+      <c r="E2" s="13">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2.8019828173782786</v>
+      </c>
+      <c r="E3" s="13">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3.9205642309579938</v>
+      </c>
+      <c r="E4" s="13">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.2926678508031757</v>
+      </c>
+      <c r="E5" s="13">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.4966702622946206</v>
+      </c>
+      <c r="E6" s="13">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.3387078036620916</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1.662759442733091</v>
+      </c>
+      <c r="E8" s="13">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2.598744835539557</v>
+      </c>
+      <c r="E9" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1.9413317247167639</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3.3740289080760242</v>
+      </c>
+      <c r="E11" s="13">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.8904439599777811</v>
+      </c>
+      <c r="E12" s="13">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="42">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.77610720900872</v>
+      </c>
+      <c r="E13" s="13">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.837511566218393</v>
+      </c>
+      <c r="E14" s="13">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>4</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>39</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.7649737959429348</v>
+      </c>
+      <c r="E15" s="13">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>5</v>
+      </c>
+      <c r="B16" s="42">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>38</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1.6145408563338297</v>
+      </c>
+      <c r="E16" s="13">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>6</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.7375626797161705</v>
+      </c>
+      <c r="E17" s="13">
+        <v>10525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="42">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>39</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1.5659991530066768</v>
+      </c>
+      <c r="E18" s="13">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>8</v>
+      </c>
+      <c r="B19" s="42">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <v>33</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.9747705998072842</v>
+      </c>
+      <c r="E19" s="13">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>9</v>
+      </c>
+      <c r="B20" s="42">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>24</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1.8147790419985577</v>
+      </c>
+      <c r="E20" s="13">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>10</v>
+      </c>
+      <c r="B21" s="42">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>30</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2.0152083863823114</v>
+      </c>
+      <c r="E21" s="13">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>11</v>
+      </c>
+      <c r="B22" s="42">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>33</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1.644189622274975</v>
+      </c>
+      <c r="E22" s="13">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>12</v>
+      </c>
+      <c r="B23" s="42">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1.695532517371394</v>
+      </c>
+      <c r="E23" s="13">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>13</v>
+      </c>
+      <c r="B24" s="42">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>22</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1.662291385973246</v>
+      </c>
+      <c r="E24" s="13">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>14</v>
+      </c>
+      <c r="B25" s="42">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>18</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1.8942354756377815</v>
+      </c>
+      <c r="E25" s="13">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>15</v>
+      </c>
+      <c r="B26" s="42">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.4539139447099576</v>
+      </c>
+      <c r="E26" s="13">
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>16</v>
+      </c>
+      <c r="B27" s="42">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
+        <v>39</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1.8831909130059583</v>
+      </c>
+      <c r="E27" s="13">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>17</v>
+      </c>
+      <c r="B28" s="42">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>19</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1.8595863891608966</v>
+      </c>
+      <c r="E28" s="13">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>18</v>
+      </c>
+      <c r="B29" s="42">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.8636221604626391</v>
+      </c>
+      <c r="E29" s="13">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>19</v>
+      </c>
+      <c r="B30" s="42">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>51</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.9645089981485191</v>
+      </c>
+      <c r="E30" s="13">
+        <v>15475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>20</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
+        <v>48</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1.868726871191231</v>
+      </c>
+      <c r="E31" s="13">
+        <v>14800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB576F-07AE-9345-9BCA-5BFB12B54D5D}">
   <dimension ref="A2:L38"/>
   <sheetViews>
@@ -3626,7 +4172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -4268,17 +4814,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4298,7 +4844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4318,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4338,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4358,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4378,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4397,8 +4943,12 @@
       <c r="F6" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f>AVERAGE(E2:E11)-AVERAGE(E12:E21)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4418,7 +4968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4438,7 +4988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4458,7 +5008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4478,7 +5028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4498,7 +5048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4518,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4538,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4558,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4578,7 +5128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F2D5C-7911-EF41-9799-CEA36E69D906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E2A9A-2E88-984D-9F8A-3F53C8B559A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="2" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="5" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>unit1</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>matched</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>ATT</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:L1048576"/>
+      <selection activeCell="K23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1503,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51201114-4A4E-3B4E-91D8-77E1E6A085FD}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H22"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2283,16 +2289,16 @@
         <v>11425</v>
       </c>
       <c r="I10" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="13">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K10" s="13">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="L10" s="15">
-        <v>10075</v>
+        <v>8500</v>
       </c>
       <c r="M10" s="12">
         <v>7</v>
@@ -2320,11 +2326,11 @@
       </c>
       <c r="U10" s="12">
         <f>(B10-J10)^2</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <f>(C10-K10)^2</f>
-        <v>0.67034310572269629</v>
+        <v>0.50231924190399391</v>
       </c>
       <c r="W10" s="12">
         <f>(B10-N10)^2</f>
@@ -2541,11 +2547,11 @@
       </c>
       <c r="J13">
         <f>_xlfn.VAR.P(J3:J12)</f>
-        <v>22.4</v>
+        <v>24.01</v>
       </c>
       <c r="K13" s="1">
         <f>_xlfn.VAR.P(K3:K12)</f>
-        <v>1.0245000000000001E-2</v>
+        <v>1.0123999999999999E-2</v>
       </c>
       <c r="N13">
         <f>_xlfn.VAR.P(N3:N12)</f>
@@ -2568,7 +2574,7 @@
       </c>
       <c r="V13" s="19">
         <f>SUM(U3:V12)</f>
-        <v>58.154568905145076</v>
+        <v>8.9865450413263748</v>
       </c>
       <c r="W13" s="28" t="s">
         <v>26</v>
@@ -2720,7 +2726,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>SQRT(V13)</f>
-        <v>7.6259142996197564</v>
+        <v>2.9977566681314172</v>
       </c>
       <c r="C26"/>
       <c r="E26" s="1"/>
@@ -2748,12 +2754,32 @@
         <v>32.528660297842237</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>AVERAGE(D3:D12)-AVERAGE(H3:H22)</f>
+        <v>-26.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>AVERAGE(D3:D12)-AVERAGE(L3:L12)</f>
+        <v>1607.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2774,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36857C37-1F30-AD4A-99A6-5D8EF28DF0EA}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -4816,15 +4842,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4844,7 +4870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4864,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4884,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4904,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4924,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4943,12 +4969,8 @@
       <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="H6">
-        <f>AVERAGE(E2:E11)-AVERAGE(E12:E21)</f>
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4968,7 +4990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4988,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5008,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5028,7 +5050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5048,100 +5070,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>1.89</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="15">
         <v>8050</v>
       </c>
       <c r="F12" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>29</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <v>1.74</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="15">
         <v>10525</v>
       </c>
       <c r="F13" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <v>1.81</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="15">
         <v>9400</v>
       </c>
       <c r="F14" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="13">
         <v>1.78</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="15">
         <v>10075</v>
       </c>
       <c r="F15" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>1.97</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="15">
         <v>11425</v>
       </c>
       <c r="F16" s="13">
@@ -5152,16 +5174,16 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>22</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="13">
         <v>1.66</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="15">
         <v>8950</v>
       </c>
       <c r="F17" s="13">
@@ -5172,16 +5194,16 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <v>1.86</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>8275</v>
       </c>
       <c r="F18" s="13">
@@ -5192,17 +5214,17 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>1.78</v>
-      </c>
-      <c r="E19">
-        <v>10075</v>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.89</v>
+      </c>
+      <c r="E19" s="15">
+        <v>8500</v>
       </c>
       <c r="F19" s="13">
         <v>8</v>
@@ -5212,16 +5234,16 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <v>1.84</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="15">
         <v>8725</v>
       </c>
       <c r="F20" s="13">
@@ -5232,16 +5254,16 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="16">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="17">
         <v>30</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>2.02</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="19">
         <v>10750</v>
       </c>
       <c r="F21" s="17">

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E2A9A-2E88-984D-9F8A-3F53C8B559A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9688B55C-39D0-574E-9896-7FD9CDE9527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="1280" windowWidth="33960" windowHeight="16940" activeTab="5" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-38420" yWindow="1280" windowWidth="38400" windowHeight="19740" activeTab="1" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="reshaped data" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="bias adjustment" sheetId="4" r:id="rId6"/>
+    <sheet name="Raw data" sheetId="9" r:id="rId1"/>
+    <sheet name="matched sample" sheetId="2" r:id="rId2"/>
+    <sheet name="Random matches" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="reshaped data" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="bias adjustment" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>unit1</t>
   </si>
@@ -106,9 +107,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>Row</t>
-  </si>
-  <si>
     <t>Optimized sample</t>
   </si>
   <si>
@@ -158,6 +156,12 @@
   </si>
   <si>
     <t>ATT</t>
+  </si>
+  <si>
+    <t>match1</t>
+  </si>
+  <si>
+    <t>row</t>
   </si>
 </sst>
 </file>
@@ -376,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +440,28 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,11 +775,1076 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638DFE1-B2B6-314A-AD0B-D21E9C334638}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1.2768669668126549</v>
+      </c>
+      <c r="D3" s="21">
+        <v>9500</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>20</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1.8904439599777811</v>
+      </c>
+      <c r="H3" s="23">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2.8019828173782786</v>
+      </c>
+      <c r="D4" s="13">
+        <v>12250</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>27</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.77610720900872</v>
+      </c>
+      <c r="H4" s="15">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.9205642309579938</v>
+      </c>
+      <c r="D5" s="13">
+        <v>11000</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1.837511566218393</v>
+      </c>
+      <c r="H5" s="15">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2.2926678508031757</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11750</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13">
+        <v>39</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.7649737959429348</v>
+      </c>
+      <c r="H6" s="15">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2.4966702622946206</v>
+      </c>
+      <c r="D7" s="13">
+        <v>13250</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>38</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1.6145408563338297</v>
+      </c>
+      <c r="H7" s="15">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.3387078036620916</v>
+      </c>
+      <c r="D8" s="13">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13">
+        <v>29</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.7375626797161705</v>
+      </c>
+      <c r="H8" s="15">
+        <v>10525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.662759442733091</v>
+      </c>
+      <c r="D9" s="13">
+        <v>9750</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13">
+        <v>39</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.5659991530066768</v>
+      </c>
+      <c r="H9" s="15">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2.598744835539557</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8</v>
+      </c>
+      <c r="F10" s="13">
+        <v>33</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.9747705998072842</v>
+      </c>
+      <c r="H10" s="15">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13">
+        <v>21</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.9413317247167639</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10250</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13">
+        <v>24</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.8147790419985577</v>
+      </c>
+      <c r="H11" s="15">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18">
+        <v>3.3740289080760242</v>
+      </c>
+      <c r="D12" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13">
+        <v>30</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2.0152083863823114</v>
+      </c>
+      <c r="H12" s="15">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="E13" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.644189622274975</v>
+      </c>
+      <c r="H13" s="15">
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="E14" s="12">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13">
+        <v>36</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.695532517371394</v>
+      </c>
+      <c r="H14" s="15">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="E15" s="12">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1.662291385973246</v>
+      </c>
+      <c r="H15" s="15">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="E16" s="12">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.8942354756377815</v>
+      </c>
+      <c r="H16" s="15">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="E17" s="12">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13">
+        <v>43</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1.4539139447099576</v>
+      </c>
+      <c r="H17" s="15">
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="E18" s="12">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13">
+        <v>39</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1.8831909130059583</v>
+      </c>
+      <c r="H18" s="15">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="E19" s="12">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.8595863891608966</v>
+      </c>
+      <c r="H19" s="15">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="E20" s="12">
+        <v>18</v>
+      </c>
+      <c r="F20" s="13">
+        <v>30</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1.8636221604626391</v>
+      </c>
+      <c r="H20" s="15">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="E21" s="12">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13">
+        <v>51</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1.9645089981485191</v>
+      </c>
+      <c r="H21" s="15">
+        <v>15475</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="E22" s="16">
+        <v>20</v>
+      </c>
+      <c r="F22" s="17">
+        <v>48</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1.868726871191231</v>
+      </c>
+      <c r="H22" s="19">
+        <v>14800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L7:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" style="42"/>
+    <col min="6" max="6" width="10.83203125" style="43"/>
+    <col min="7" max="7" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48">
+        <v>8</v>
+      </c>
+      <c r="D2" s="48">
+        <v>32</v>
+      </c>
+      <c r="E2" s="48">
+        <v>11500</v>
+      </c>
+      <c r="F2" s="49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42">
+        <v>10</v>
+      </c>
+      <c r="D3" s="42">
+        <v>29</v>
+      </c>
+      <c r="E3" s="42">
+        <v>11499</v>
+      </c>
+      <c r="F3" s="51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42">
+        <v>4</v>
+      </c>
+      <c r="D4" s="42">
+        <v>32</v>
+      </c>
+      <c r="E4" s="42">
+        <v>11501</v>
+      </c>
+      <c r="F4" s="51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42">
+        <v>7</v>
+      </c>
+      <c r="D5" s="42">
+        <v>32</v>
+      </c>
+      <c r="E5" s="42">
+        <v>11501</v>
+      </c>
+      <c r="F5" s="51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
+      <c r="C6" s="42">
+        <v>3</v>
+      </c>
+      <c r="D6" s="42">
+        <v>18</v>
+      </c>
+      <c r="E6" s="42">
+        <v>11505</v>
+      </c>
+      <c r="F6" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="50">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>31</v>
+      </c>
+      <c r="E7" s="42">
+        <v>11501</v>
+      </c>
+      <c r="F7" s="51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="50">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42">
+        <v>9</v>
+      </c>
+      <c r="D8" s="42">
+        <v>20</v>
+      </c>
+      <c r="E8" s="42">
+        <v>11498</v>
+      </c>
+      <c r="F8" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>2</v>
+      </c>
+      <c r="D9" s="42">
+        <v>31</v>
+      </c>
+      <c r="E9" s="42">
+        <v>11499</v>
+      </c>
+      <c r="F9" s="51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42">
+        <v>1</v>
+      </c>
+      <c r="C10" s="42">
+        <v>6</v>
+      </c>
+      <c r="D10" s="42">
+        <v>25</v>
+      </c>
+      <c r="E10" s="42">
+        <v>11500</v>
+      </c>
+      <c r="F10" s="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53">
+        <v>1</v>
+      </c>
+      <c r="C11" s="53">
+        <v>5</v>
+      </c>
+      <c r="D11" s="53">
+        <v>32</v>
+      </c>
+      <c r="E11" s="53">
+        <v>11498</v>
+      </c>
+      <c r="F11" s="54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42">
+        <v>0</v>
+      </c>
+      <c r="C12" s="42">
+        <v>5</v>
+      </c>
+      <c r="D12" s="42">
+        <v>25</v>
+      </c>
+      <c r="E12" s="42">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
+        <v>12</v>
+      </c>
+      <c r="B13" s="42">
+        <v>0</v>
+      </c>
+      <c r="C13" s="42">
+        <v>3</v>
+      </c>
+      <c r="D13" s="42">
+        <v>28</v>
+      </c>
+      <c r="E13" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
+        <v>13</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0</v>
+      </c>
+      <c r="C14" s="42">
+        <v>20</v>
+      </c>
+      <c r="D14" s="42">
+        <v>44</v>
+      </c>
+      <c r="E14" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
+        <v>14</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0</v>
+      </c>
+      <c r="C15" s="42">
+        <v>4</v>
+      </c>
+      <c r="D15" s="42">
+        <v>45</v>
+      </c>
+      <c r="E15" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42">
+        <v>0</v>
+      </c>
+      <c r="C16" s="42">
+        <v>13</v>
+      </c>
+      <c r="D16" s="42">
+        <v>18</v>
+      </c>
+      <c r="E16" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
+        <v>16</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42">
+        <v>18</v>
+      </c>
+      <c r="D17" s="42">
+        <v>27</v>
+      </c>
+      <c r="E17" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
+        <v>17</v>
+      </c>
+      <c r="B18" s="42">
+        <v>0</v>
+      </c>
+      <c r="C18" s="42">
+        <v>7</v>
+      </c>
+      <c r="D18" s="42">
+        <v>33</v>
+      </c>
+      <c r="E18" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42">
+        <v>0</v>
+      </c>
+      <c r="C19" s="42">
+        <v>6</v>
+      </c>
+      <c r="D19" s="42">
+        <v>37</v>
+      </c>
+      <c r="E19" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
+        <v>19</v>
+      </c>
+      <c r="B20" s="42">
+        <v>0</v>
+      </c>
+      <c r="C20" s="42">
+        <v>16</v>
+      </c>
+      <c r="D20" s="42">
+        <v>31</v>
+      </c>
+      <c r="E20" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <v>20</v>
+      </c>
+      <c r="B21" s="42">
+        <v>0</v>
+      </c>
+      <c r="C21" s="42">
+        <v>2</v>
+      </c>
+      <c r="D21" s="42">
+        <v>36</v>
+      </c>
+      <c r="E21" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <v>21</v>
+      </c>
+      <c r="B22" s="42">
+        <v>0</v>
+      </c>
+      <c r="C22" s="42">
+        <v>19</v>
+      </c>
+      <c r="D22" s="42">
+        <v>29</v>
+      </c>
+      <c r="E22" s="42">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
+        <v>22</v>
+      </c>
+      <c r="B23" s="42">
+        <v>0</v>
+      </c>
+      <c r="C23" s="42">
+        <v>8</v>
+      </c>
+      <c r="D23" s="42">
+        <v>28</v>
+      </c>
+      <c r="E23" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42">
+        <v>0</v>
+      </c>
+      <c r="C24" s="42">
+        <v>9</v>
+      </c>
+      <c r="D24" s="42">
+        <v>33</v>
+      </c>
+      <c r="E24" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
+        <v>24</v>
+      </c>
+      <c r="B25" s="42">
+        <v>0</v>
+      </c>
+      <c r="C25" s="42">
+        <v>10</v>
+      </c>
+      <c r="D25" s="42">
+        <v>23</v>
+      </c>
+      <c r="E25" s="42">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42">
+        <v>0</v>
+      </c>
+      <c r="C26" s="42">
+        <v>14</v>
+      </c>
+      <c r="D26" s="42">
+        <v>39</v>
+      </c>
+      <c r="E26" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>26</v>
+      </c>
+      <c r="B27" s="42">
+        <v>0</v>
+      </c>
+      <c r="C27" s="42">
+        <v>12</v>
+      </c>
+      <c r="D27" s="42">
+        <v>21</v>
+      </c>
+      <c r="E27" s="42">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
+        <v>27</v>
+      </c>
+      <c r="B28" s="42">
+        <v>0</v>
+      </c>
+      <c r="C28" s="42">
+        <v>15</v>
+      </c>
+      <c r="D28" s="42">
+        <v>41</v>
+      </c>
+      <c r="E28" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
+        <v>28</v>
+      </c>
+      <c r="B29" s="42">
+        <v>0</v>
+      </c>
+      <c r="C29" s="42">
+        <v>1</v>
+      </c>
+      <c r="D29" s="42">
+        <v>21</v>
+      </c>
+      <c r="E29" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42">
+        <v>0</v>
+      </c>
+      <c r="C30" s="42">
+        <v>17</v>
+      </c>
+      <c r="D30" s="42">
+        <v>32</v>
+      </c>
+      <c r="E30" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
+        <v>30</v>
+      </c>
+      <c r="B31" s="42">
+        <v>0</v>
+      </c>
+      <c r="C31" s="42">
+        <v>11</v>
+      </c>
+      <c r="D31" s="42">
+        <v>20</v>
+      </c>
+      <c r="E31" s="42">
+        <v>10500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734DA3BF-01C7-4C40-A46E-2B0705D78D30}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:L23"/>
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,7 +2598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51201114-4A4E-3B4E-91D8-77E1E6A085FD}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
@@ -1551,7 +2642,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1569,15 +2660,15 @@
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
       <c r="U1" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="31"/>
     </row>
@@ -1643,22 +2734,22 @@
         <v>13</v>
       </c>
       <c r="U2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="W2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="38" t="s">
-        <v>32</v>
-      </c>
       <c r="Y2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2523,7 +3614,7 @@
     </row>
     <row r="13" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <f>_xlfn.VAR.P(B3:B12)</f>
@@ -2570,21 +3661,21 @@
         <v>1.9370906690393069E-2</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V13" s="19">
         <f>SUM(U3:V12)</f>
         <v>8.9865450413263748</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X13" s="32">
         <f>SUM(W3:X12)</f>
         <v>2093.6518545671252</v>
       </c>
       <c r="Y13" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="33">
         <f>SUM(Y3:Z12)</f>
@@ -2719,7 +3810,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
     </row>
@@ -2759,7 +3850,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1"/>
       <c r="G34"/>
@@ -2772,7 +3863,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2796,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36857C37-1F30-AD4A-99A6-5D8EF28DF0EA}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -2823,7 +3914,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3341,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB576F-07AE-9345-9BCA-5BFB12B54D5D}">
   <dimension ref="A2:L38"/>
   <sheetViews>
@@ -3365,10 +4456,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -3380,7 +4471,7 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4198,654 +5289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1.2768669668126549</v>
-      </c>
-      <c r="F2" s="13">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>29</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2.8019828173782786</v>
-      </c>
-      <c r="F3" s="13">
-        <v>12250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3.9205642309579938</v>
-      </c>
-      <c r="F4" s="13">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13">
-        <v>27</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2.2926678508031757</v>
-      </c>
-      <c r="F5" s="13">
-        <v>11750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13">
-        <v>33</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2.4966702622946206</v>
-      </c>
-      <c r="F6" s="13">
-        <v>13250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13">
-        <v>22</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1.3387078036620916</v>
-      </c>
-      <c r="F7" s="13">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1.662759442733091</v>
-      </c>
-      <c r="F8" s="13">
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13">
-        <v>20</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2.598744835539557</v>
-      </c>
-      <c r="F9" s="13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13">
-        <v>21</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1.9413317247167639</v>
-      </c>
-      <c r="F10" s="13">
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13">
-        <v>30</v>
-      </c>
-      <c r="E11" s="14">
-        <v>3.3740289080760242</v>
-      </c>
-      <c r="F11" s="13">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
-        <v>20</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1.8904439599777811</v>
-      </c>
-      <c r="F12" s="13">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>27</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.77610720900872</v>
-      </c>
-      <c r="F13" s="13">
-        <v>10075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13">
-        <v>21</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1.837511566218393</v>
-      </c>
-      <c r="F14" s="13">
-        <v>8725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13">
-        <v>39</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1.7649737959429348</v>
-      </c>
-      <c r="F15" s="13">
-        <v>12775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>5</v>
-      </c>
-      <c r="D16" s="13">
-        <v>38</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1.6145408563338297</v>
-      </c>
-      <c r="F16" s="13">
-        <v>12550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13">
-        <v>29</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1.7375626797161705</v>
-      </c>
-      <c r="F17" s="13">
-        <v>10525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13">
-        <v>39</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1.5659991530066768</v>
-      </c>
-      <c r="F18" s="13">
-        <v>12775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13">
-        <v>33</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1.9747705998072842</v>
-      </c>
-      <c r="F19" s="13">
-        <v>11425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <v>9</v>
-      </c>
-      <c r="D20" s="13">
-        <v>24</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1.8147790419985577</v>
-      </c>
-      <c r="F20" s="13">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
-        <v>10</v>
-      </c>
-      <c r="D21" s="13">
-        <v>30</v>
-      </c>
-      <c r="E21" s="14">
-        <v>2.0152083863823114</v>
-      </c>
-      <c r="F21" s="13">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
-        <v>11</v>
-      </c>
-      <c r="D22" s="13">
-        <v>33</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1.644189622274975</v>
-      </c>
-      <c r="F22" s="13">
-        <v>11425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13">
-        <v>36</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1.695532517371394</v>
-      </c>
-      <c r="F23" s="13">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13">
-        <v>13</v>
-      </c>
-      <c r="D24" s="13">
-        <v>22</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1.662291385973246</v>
-      </c>
-      <c r="F24" s="13">
-        <v>8950</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
-        <v>14</v>
-      </c>
-      <c r="D25" s="13">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1.8942354756377815</v>
-      </c>
-      <c r="F25" s="13">
-        <v>8050</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
-        <v>15</v>
-      </c>
-      <c r="D26" s="13">
-        <v>43</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1.4539139447099576</v>
-      </c>
-      <c r="F26" s="13">
-        <v>13675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13">
-        <v>39</v>
-      </c>
-      <c r="E27" s="14">
-        <v>1.8831909130059583</v>
-      </c>
-      <c r="F27" s="13">
-        <v>12775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
-        <v>17</v>
-      </c>
-      <c r="D28" s="13">
-        <v>19</v>
-      </c>
-      <c r="E28" s="14">
-        <v>1.8595863891608966</v>
-      </c>
-      <c r="F28" s="13">
-        <v>8275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>18</v>
-      </c>
-      <c r="D29" s="13">
-        <v>30</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1.8636221604626391</v>
-      </c>
-      <c r="F29" s="13">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
-        <v>19</v>
-      </c>
-      <c r="D30" s="13">
-        <v>51</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1.9645089981485191</v>
-      </c>
-      <c r="F30" s="13">
-        <v>15475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
-        <v>20</v>
-      </c>
-      <c r="D31" s="13">
-        <v>48</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1.868726871191231</v>
-      </c>
-      <c r="F31" s="13">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4864,10 +5313,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9688B55C-39D0-574E-9896-7FD9CDE9527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6067958-F62C-B242-9163-7C335B07DCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="1280" windowWidth="38400" windowHeight="19740" activeTab="1" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-33240" yWindow="1280" windowWidth="25400" windowHeight="19740" activeTab="1" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+  <si>
+    <t>Trainees</t>
+  </si>
   <si>
     <t>unit1</t>
   </si>
@@ -71,6 +74,9 @@
     <t>Trainee sample</t>
   </si>
   <si>
+    <t>Non-trainee sample</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t>Earnings</t>
+  </si>
+  <si>
+    <t>Matched sample</t>
   </si>
   <si>
     <t>Matched sample #1</t>
@@ -163,15 +172,25 @@
   <si>
     <t>row</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Non-Tranees</t>
+  </si>
+  <si>
+    <t>Non-trainee Matched Sample</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="168" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +202,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,12 +246,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -380,88 +427,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,468 +838,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638DFE1-B2B6-314A-AD0B-D21E9C334638}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="L1" sqref="L1:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="45"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="L1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45">
+        <v>31</v>
+      </c>
+      <c r="D3" s="45">
+        <v>26629</v>
+      </c>
+      <c r="E3" s="45">
+        <v>19</v>
+      </c>
+      <c r="F3" s="52">
+        <v>11</v>
+      </c>
+      <c r="G3" s="45">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45">
+        <v>29</v>
+      </c>
+      <c r="I3" s="53">
+        <v>23178</v>
+      </c>
+      <c r="L3" s="52">
+        <v>1</v>
+      </c>
+      <c r="M3" s="45">
+        <v>31</v>
+      </c>
+      <c r="N3" s="45">
+        <v>26629</v>
+      </c>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="45">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="53">
+        <v>23178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45">
+        <v>26633</v>
+      </c>
+      <c r="E4" s="45">
+        <v>19</v>
+      </c>
+      <c r="F4" s="52">
+        <v>12</v>
+      </c>
+      <c r="G4" s="45">
+        <v>2</v>
+      </c>
+      <c r="H4" s="45">
+        <v>39</v>
+      </c>
+      <c r="I4" s="53">
+        <v>33817</v>
+      </c>
+      <c r="L4" s="52">
+        <v>2</v>
+      </c>
+      <c r="M4" s="45">
+        <v>31</v>
+      </c>
+      <c r="N4" s="45">
+        <v>26633</v>
+      </c>
+      <c r="O4" s="52">
+        <v>2</v>
+      </c>
+      <c r="P4" s="45">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>33817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45">
+        <v>18</v>
+      </c>
+      <c r="D5" s="45">
+        <v>15324</v>
+      </c>
+      <c r="E5" s="45">
+        <v>15</v>
+      </c>
+      <c r="F5" s="52">
+        <v>13</v>
+      </c>
+      <c r="G5" s="45">
+        <v>3</v>
+      </c>
+      <c r="H5" s="45">
+        <v>33</v>
+      </c>
+      <c r="I5" s="53">
+        <v>27061</v>
+      </c>
+      <c r="L5" s="52">
+        <v>3</v>
+      </c>
+      <c r="M5" s="45">
+        <v>18</v>
+      </c>
+      <c r="N5" s="45">
+        <v>15324</v>
+      </c>
+      <c r="O5" s="52">
+        <v>3</v>
+      </c>
+      <c r="P5" s="45">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="53">
+        <v>27061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45">
+        <v>32</v>
+      </c>
+      <c r="D6" s="45">
+        <v>27717</v>
+      </c>
+      <c r="E6" s="45">
+        <v>12</v>
+      </c>
+      <c r="F6" s="52">
+        <v>14</v>
+      </c>
+      <c r="G6" s="45">
+        <v>4</v>
+      </c>
+      <c r="H6" s="45">
+        <v>46</v>
+      </c>
+      <c r="I6" s="53">
+        <v>43109</v>
+      </c>
+      <c r="L6" s="52">
+        <v>4</v>
+      </c>
+      <c r="M6" s="45">
+        <v>32</v>
+      </c>
+      <c r="N6" s="45">
+        <v>27717</v>
+      </c>
+      <c r="O6" s="52">
+        <v>4</v>
+      </c>
+      <c r="P6" s="45">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="53">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45">
+        <v>32</v>
+      </c>
+      <c r="D7" s="45">
+        <v>27725</v>
+      </c>
+      <c r="E7" s="45">
+        <v>12</v>
+      </c>
+      <c r="F7" s="52">
+        <v>15</v>
+      </c>
+      <c r="G7" s="45">
+        <v>5</v>
+      </c>
+      <c r="H7" s="45">
+        <v>32</v>
+      </c>
+      <c r="I7" s="53">
+        <v>26040</v>
+      </c>
+      <c r="L7" s="52">
+        <v>5</v>
+      </c>
+      <c r="M7" s="45">
+        <v>32</v>
+      </c>
+      <c r="N7" s="45">
+        <v>27725</v>
+      </c>
+      <c r="O7" s="52">
+        <v>5</v>
+      </c>
+      <c r="P7" s="45">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="53">
+        <v>26040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45">
+        <v>25</v>
+      </c>
+      <c r="D8" s="45">
+        <v>20762</v>
+      </c>
+      <c r="E8" s="45">
+        <v>11</v>
+      </c>
+      <c r="F8" s="52">
+        <v>16</v>
+      </c>
+      <c r="G8" s="45">
+        <v>6</v>
+      </c>
+      <c r="H8" s="45">
+        <v>39</v>
+      </c>
+      <c r="I8" s="53">
+        <v>33815</v>
+      </c>
+      <c r="L8" s="52">
+        <v>6</v>
+      </c>
+      <c r="M8" s="45">
+        <v>25</v>
+      </c>
+      <c r="N8" s="45">
+        <v>20762</v>
+      </c>
+      <c r="O8" s="52">
+        <v>6</v>
+      </c>
+      <c r="P8" s="45">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="53">
+        <v>33815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="52">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45">
+        <v>7</v>
+      </c>
+      <c r="C9" s="45">
+        <v>32</v>
+      </c>
+      <c r="D9" s="45">
+        <v>27716</v>
+      </c>
+      <c r="E9" s="45">
+        <v>12</v>
+      </c>
+      <c r="F9" s="52">
+        <v>17</v>
+      </c>
+      <c r="G9" s="45">
+        <v>7</v>
+      </c>
+      <c r="H9" s="45">
+        <v>31</v>
+      </c>
+      <c r="I9" s="53">
+        <v>25052</v>
+      </c>
+      <c r="L9" s="52">
+        <v>7</v>
+      </c>
+      <c r="M9" s="45">
+        <v>32</v>
+      </c>
+      <c r="N9" s="45">
+        <v>27716</v>
+      </c>
+      <c r="O9" s="52">
+        <v>7</v>
+      </c>
+      <c r="P9" s="45">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="53">
+        <v>25052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="52">
+        <v>8</v>
+      </c>
+      <c r="B10" s="45">
+        <v>8</v>
+      </c>
+      <c r="C10" s="45">
+        <v>32</v>
+      </c>
+      <c r="D10" s="45">
+        <v>27719</v>
+      </c>
+      <c r="E10" s="45">
+        <v>12</v>
+      </c>
+      <c r="F10" s="52">
+        <v>18</v>
+      </c>
+      <c r="G10" s="45">
+        <v>8</v>
+      </c>
+      <c r="H10" s="45">
+        <v>33</v>
+      </c>
+      <c r="I10" s="53">
+        <v>27060</v>
+      </c>
+      <c r="L10" s="52">
+        <v>8</v>
+      </c>
+      <c r="M10" s="45">
+        <v>32</v>
+      </c>
+      <c r="N10" s="45">
+        <v>27719</v>
+      </c>
+      <c r="O10" s="52">
+        <v>8</v>
+      </c>
+      <c r="P10" s="45">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="53">
+        <v>27060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="52">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B11" s="45">
+        <v>9</v>
+      </c>
+      <c r="C11" s="45">
+        <v>20</v>
+      </c>
+      <c r="D11" s="45">
+        <v>16723</v>
+      </c>
+      <c r="E11" s="45">
+        <v>30</v>
+      </c>
+      <c r="F11" s="52">
+        <v>19</v>
+      </c>
+      <c r="G11" s="45">
+        <v>9</v>
+      </c>
+      <c r="H11" s="45">
+        <v>25</v>
+      </c>
+      <c r="I11" s="53">
+        <v>19787</v>
+      </c>
+      <c r="L11" s="52">
+        <v>9</v>
+      </c>
+      <c r="M11" s="45">
+        <v>20</v>
+      </c>
+      <c r="N11" s="45">
+        <v>16723</v>
+      </c>
+      <c r="O11" s="52">
+        <v>9</v>
+      </c>
+      <c r="P11" s="45">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="53">
+        <v>19787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
+        <v>10</v>
+      </c>
+      <c r="B12" s="55">
+        <v>10</v>
+      </c>
+      <c r="C12" s="55">
+        <v>29</v>
+      </c>
+      <c r="D12" s="55">
+        <v>24552</v>
+      </c>
+      <c r="E12" s="55">
+        <v>17</v>
+      </c>
+      <c r="F12" s="52">
+        <v>20</v>
+      </c>
+      <c r="G12" s="45">
+        <v>10</v>
+      </c>
+      <c r="H12" s="45">
+        <v>29</v>
+      </c>
+      <c r="I12" s="53">
+        <v>23173</v>
+      </c>
+      <c r="L12" s="54">
+        <v>10</v>
+      </c>
+      <c r="M12" s="55">
+        <v>29</v>
+      </c>
+      <c r="N12" s="55">
+        <v>24552</v>
+      </c>
+      <c r="O12" s="52">
+        <v>10</v>
+      </c>
+      <c r="P12" s="45">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>23173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="45">
+        <f>AVERAGE(C3:C12)</f>
+        <v>28.2</v>
+      </c>
+      <c r="D13" s="57">
+        <f>AVERAGE(D3:D12)</f>
+        <v>24150</v>
+      </c>
+      <c r="F13" s="52">
+        <v>21</v>
+      </c>
+      <c r="G13" s="45">
+        <v>11</v>
+      </c>
+      <c r="H13" s="45">
+        <v>27</v>
+      </c>
+      <c r="I13" s="53">
+        <v>21416</v>
+      </c>
+      <c r="O13" s="52">
+        <v>11</v>
+      </c>
+      <c r="P13" s="45">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="53">
+        <v>21416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F14" s="52">
+        <v>22</v>
+      </c>
+      <c r="G14" s="45">
+        <v>12</v>
+      </c>
+      <c r="H14" s="45">
+        <v>32</v>
+      </c>
+      <c r="I14" s="53">
+        <v>26040</v>
+      </c>
+      <c r="O14" s="52">
+        <v>12</v>
+      </c>
+      <c r="P14" s="45">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="53">
+        <v>26040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F15" s="52">
+        <v>23</v>
+      </c>
+      <c r="G15" s="45">
+        <v>13</v>
+      </c>
+      <c r="H15" s="45">
+        <v>20</v>
+      </c>
+      <c r="I15" s="53">
+        <v>16246</v>
+      </c>
+      <c r="O15" s="52">
+        <v>13</v>
+      </c>
+      <c r="P15" s="45">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="53">
+        <v>16246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F16" s="52">
+        <v>24</v>
+      </c>
+      <c r="G16" s="45">
+        <v>14</v>
+      </c>
+      <c r="H16" s="45">
+        <v>41</v>
+      </c>
+      <c r="I16" s="53">
+        <v>36316</v>
+      </c>
+      <c r="O16" s="52">
+        <v>14</v>
+      </c>
+      <c r="P16" s="45">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="53">
+        <v>36316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F17" s="52">
+        <v>25</v>
+      </c>
+      <c r="G17" s="45">
+        <v>15</v>
+      </c>
+      <c r="H17" s="45">
         <v>18</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="I17" s="53">
+        <v>15046</v>
+      </c>
+      <c r="O17" s="52">
+        <v>15</v>
+      </c>
+      <c r="P17" s="45">
         <v>18</v>
       </c>
-      <c r="C3" s="22">
-        <v>1.2768669668126549</v>
-      </c>
-      <c r="D3" s="21">
-        <v>9500</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="Q17" s="53">
+        <v>15046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F18" s="52">
+        <v>26</v>
+      </c>
+      <c r="G18" s="45">
+        <v>16</v>
+      </c>
+      <c r="H18" s="45">
+        <v>29</v>
+      </c>
+      <c r="I18" s="53">
+        <v>23178</v>
+      </c>
+      <c r="O18" s="52">
+        <v>16</v>
+      </c>
+      <c r="P18" s="45">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="53">
+        <v>23178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F19" s="52">
+        <v>27</v>
+      </c>
+      <c r="G19" s="45">
+        <v>17</v>
+      </c>
+      <c r="H19" s="45">
+        <v>49</v>
+      </c>
+      <c r="I19" s="53">
+        <v>47559</v>
+      </c>
+      <c r="O19" s="52">
+        <v>17</v>
+      </c>
+      <c r="P19" s="45">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="53">
+        <v>47559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F20" s="52">
+        <v>28</v>
+      </c>
+      <c r="G20" s="45">
+        <v>18</v>
+      </c>
+      <c r="H20" s="45">
+        <v>32</v>
+      </c>
+      <c r="I20" s="53">
+        <v>26040</v>
+      </c>
+      <c r="O20" s="52">
+        <v>18</v>
+      </c>
+      <c r="P20" s="45">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="53">
+        <v>26040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F21" s="52">
+        <v>29</v>
+      </c>
+      <c r="G21" s="45">
+        <v>19</v>
+      </c>
+      <c r="H21" s="45">
+        <v>27</v>
+      </c>
+      <c r="I21" s="53">
+        <v>21418</v>
+      </c>
+      <c r="O21" s="52">
+        <v>19</v>
+      </c>
+      <c r="P21" s="45">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="53">
+        <v>21418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="54">
+        <v>30</v>
+      </c>
+      <c r="G22" s="55">
         <v>20</v>
       </c>
-      <c r="G3" s="22">
-        <v>1.8904439599777811</v>
-      </c>
-      <c r="H3" s="23">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2.8019828173782786</v>
-      </c>
-      <c r="D4" s="13">
-        <v>12250</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>27</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1.77610720900872</v>
-      </c>
-      <c r="H4" s="15">
-        <v>10075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14">
-        <v>3.9205642309579938</v>
-      </c>
-      <c r="D5" s="13">
-        <v>11000</v>
-      </c>
-      <c r="E5" s="12">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13">
-        <v>21</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1.837511566218393</v>
-      </c>
-      <c r="H5" s="15">
-        <v>8725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14">
-        <v>2.2926678508031757</v>
-      </c>
-      <c r="D6" s="13">
-        <v>11750</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" s="13">
-        <v>39</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1.7649737959429348</v>
-      </c>
-      <c r="H6" s="15">
-        <v>12775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2.4966702622946206</v>
-      </c>
-      <c r="D7" s="13">
-        <v>13250</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13">
-        <v>38</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1.6145408563338297</v>
-      </c>
-      <c r="H7" s="15">
-        <v>12550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1.3387078036620916</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10500</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1.7375626797161705</v>
-      </c>
-      <c r="H8" s="15">
-        <v>10525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.662759442733091</v>
-      </c>
-      <c r="D9" s="13">
-        <v>9750</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13">
-        <v>39</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1.5659991530066768</v>
-      </c>
-      <c r="H9" s="15">
-        <v>12775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="H22" s="55">
+        <v>46</v>
+      </c>
+      <c r="I22" s="56">
+        <v>43109</v>
+      </c>
+      <c r="O22" s="54">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
-        <v>2.598744835539557</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="12">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13">
-        <v>33</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1.9747705998072842</v>
-      </c>
-      <c r="H10" s="15">
-        <v>11425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1.9413317247167639</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10250</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1.8147790419985577</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18">
-        <v>3.3740289080760242</v>
-      </c>
-      <c r="D12" s="17">
-        <v>12500</v>
-      </c>
-      <c r="E12" s="12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2.0152083863823114</v>
-      </c>
-      <c r="H12" s="15">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="E13" s="12">
-        <v>11</v>
-      </c>
-      <c r="F13" s="13">
-        <v>33</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1.644189622274975</v>
-      </c>
-      <c r="H13" s="15">
-        <v>11425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="E14" s="12">
-        <v>12</v>
-      </c>
-      <c r="F14" s="13">
-        <v>36</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1.695532517371394</v>
-      </c>
-      <c r="H14" s="15">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="E15" s="12">
-        <v>13</v>
-      </c>
-      <c r="F15" s="13">
-        <v>22</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1.662291385973246</v>
-      </c>
-      <c r="H15" s="15">
-        <v>8950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="E16" s="12">
-        <v>14</v>
-      </c>
-      <c r="F16" s="13">
-        <v>18</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1.8942354756377815</v>
-      </c>
-      <c r="H16" s="15">
-        <v>8050</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="E17" s="12">
-        <v>15</v>
-      </c>
-      <c r="F17" s="13">
-        <v>43</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1.4539139447099576</v>
-      </c>
-      <c r="H17" s="15">
-        <v>13675</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="E18" s="12">
-        <v>16</v>
-      </c>
-      <c r="F18" s="13">
-        <v>39</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1.8831909130059583</v>
-      </c>
-      <c r="H18" s="15">
-        <v>12775</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="E19" s="12">
-        <v>17</v>
-      </c>
-      <c r="F19" s="13">
-        <v>19</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1.8595863891608966</v>
-      </c>
-      <c r="H19" s="15">
-        <v>8275</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="E20" s="12">
-        <v>18</v>
-      </c>
-      <c r="F20" s="13">
-        <v>30</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1.8636221604626391</v>
-      </c>
-      <c r="H20" s="15">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="E21" s="12">
-        <v>19</v>
-      </c>
-      <c r="F21" s="13">
-        <v>51</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1.9645089981485191</v>
-      </c>
-      <c r="H21" s="15">
-        <v>15475</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="E22" s="16">
-        <v>20</v>
-      </c>
-      <c r="F22" s="17">
-        <v>48</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1.868726871191231</v>
-      </c>
-      <c r="H22" s="19">
-        <v>14800</v>
+      <c r="P22" s="55">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="45">
+        <f>AVERAGE(H3:H22)</f>
+        <v>32.85</v>
+      </c>
+      <c r="I23" s="57">
+        <f>AVERAGE(I3:I22)</f>
+        <v>27923</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="45">
+        <f>AVERAGE(M3:M12)</f>
+        <v>28.2</v>
+      </c>
+      <c r="N23" s="57">
+        <f>AVERAGE(N3:N12)</f>
+        <v>24150</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="45">
+        <f>AVERAGE(P3:P22)</f>
+        <v>32.85</v>
+      </c>
+      <c r="Q23" s="57">
+        <f>AVERAGE(Q3:Q22)</f>
+        <v>27923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="57">
+        <f>D13-I23</f>
+        <v>-3773</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1245,596 +1689,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L7:L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="10.83203125" style="42"/>
-    <col min="6" max="6" width="10.83203125" style="43"/>
-    <col min="7" max="7" width="10.83203125" style="42"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="32"/>
+      <c r="K1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="58"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13">
+        <v>26693</v>
+      </c>
+      <c r="E3" s="60">
         <v>19</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="F3" s="20">
+        <v>19</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>31</v>
+      </c>
+      <c r="I3" s="23">
+        <v>25052</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>31</v>
+      </c>
+      <c r="M3" s="62">
+        <v>26693</v>
+      </c>
+      <c r="N3" s="21">
+        <v>2</v>
+      </c>
+      <c r="O3" s="21">
+        <v>31</v>
+      </c>
+      <c r="P3" s="65">
+        <v>25052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13">
+        <v>26691</v>
+      </c>
+      <c r="E4" s="60">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>31</v>
+      </c>
+      <c r="I4" s="15">
+        <v>25052</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13">
+        <v>31</v>
+      </c>
+      <c r="M4" s="62">
+        <v>26691</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>31</v>
+      </c>
+      <c r="P4" s="62">
+        <v>25052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13">
+        <v>15392</v>
+      </c>
+      <c r="E5" s="60">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13">
+        <v>18</v>
+      </c>
+      <c r="I5" s="15">
+        <v>15046</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3</v>
+      </c>
+      <c r="L5" s="13">
+        <v>18</v>
+      </c>
+      <c r="M5" s="62">
+        <v>15392</v>
+      </c>
+      <c r="N5" s="13">
+        <v>18</v>
+      </c>
+      <c r="O5" s="13">
+        <v>18</v>
+      </c>
+      <c r="P5" s="62">
+        <v>15046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>32</v>
+      </c>
+      <c r="D6" s="13">
+        <v>27776</v>
+      </c>
+      <c r="E6" s="60">
+        <v>26</v>
+      </c>
+      <c r="F6" s="12">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5</v>
+      </c>
+      <c r="H6" s="13">
+        <v>32</v>
+      </c>
+      <c r="I6" s="15">
+        <v>26045</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13">
+        <v>32</v>
+      </c>
+      <c r="M6" s="62">
+        <v>27776</v>
+      </c>
+      <c r="N6" s="13">
+        <v>5</v>
+      </c>
+      <c r="O6" s="13">
+        <v>32</v>
+      </c>
+      <c r="P6" s="62">
+        <v>26045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13">
+        <v>27779</v>
+      </c>
+      <c r="E7" s="60">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12">
+        <v>26</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>32</v>
+      </c>
+      <c r="I7" s="15">
+        <v>26045</v>
+      </c>
+      <c r="K7" s="12">
+        <v>5</v>
+      </c>
+      <c r="L7" s="13">
+        <v>32</v>
+      </c>
+      <c r="M7" s="62">
+        <v>27779</v>
+      </c>
+      <c r="N7" s="13">
+        <v>5</v>
+      </c>
+      <c r="O7" s="13">
+        <v>32</v>
+      </c>
+      <c r="P7" s="62">
+        <v>26045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13">
+        <v>20821</v>
+      </c>
+      <c r="E8" s="60">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13">
+        <v>25</v>
+      </c>
+      <c r="I8" s="15">
+        <v>19787</v>
+      </c>
+      <c r="K8" s="12">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13">
+        <v>25</v>
+      </c>
+      <c r="M8" s="62">
+        <v>20821</v>
+      </c>
+      <c r="N8" s="13">
+        <v>4</v>
+      </c>
+      <c r="O8" s="13">
+        <v>25</v>
+      </c>
+      <c r="P8" s="62">
+        <v>19787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13">
+        <v>27778</v>
+      </c>
+      <c r="E9" s="60">
+        <v>26</v>
+      </c>
+      <c r="F9" s="12">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <v>32</v>
+      </c>
+      <c r="I9" s="15">
+        <v>26045</v>
+      </c>
+      <c r="K9" s="12">
+        <v>7</v>
+      </c>
+      <c r="L9" s="13">
+        <v>32</v>
+      </c>
+      <c r="M9" s="62">
+        <v>27778</v>
+      </c>
+      <c r="N9" s="13">
+        <v>5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>32</v>
+      </c>
+      <c r="P9" s="62">
+        <v>26045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13">
+        <v>27780</v>
+      </c>
+      <c r="E10" s="60">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12">
+        <v>26</v>
+      </c>
+      <c r="G10" s="13">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13">
+        <v>32</v>
+      </c>
+      <c r="I10" s="15">
+        <v>26045</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8</v>
+      </c>
+      <c r="L10" s="13">
+        <v>32</v>
+      </c>
+      <c r="M10" s="62">
+        <v>27780</v>
+      </c>
+      <c r="N10" s="13">
+        <v>5</v>
+      </c>
+      <c r="O10" s="13">
+        <v>32</v>
+      </c>
+      <c r="P10" s="62">
+        <v>26045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
         <v>20</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D11" s="13">
+        <v>16781</v>
+      </c>
+      <c r="E11" s="60">
+        <v>30</v>
+      </c>
+      <c r="F11" s="12">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13">
+        <v>8</v>
+      </c>
+      <c r="H11" s="13">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15">
+        <v>16246</v>
+      </c>
+      <c r="K11" s="12">
+        <v>9</v>
+      </c>
+      <c r="L11" s="13">
+        <v>20</v>
+      </c>
+      <c r="M11" s="62">
+        <v>16781</v>
+      </c>
+      <c r="N11" s="13">
+        <v>8</v>
+      </c>
+      <c r="O11" s="13">
+        <v>20</v>
+      </c>
+      <c r="P11" s="62">
+        <v>16246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17">
+        <v>24610</v>
+      </c>
+      <c r="E12" s="61">
         <v>21</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="45" t="s">
+      <c r="F12" s="16">
         <v>21</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="46"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48">
-        <v>1</v>
-      </c>
-      <c r="C2" s="48">
-        <v>8</v>
-      </c>
-      <c r="D2" s="48">
-        <v>32</v>
-      </c>
-      <c r="E2" s="48">
-        <v>11500</v>
-      </c>
-      <c r="F2" s="49">
+      <c r="G12" s="17">
+        <v>6</v>
+      </c>
+      <c r="H12" s="17">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="50">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42">
-        <v>1</v>
-      </c>
-      <c r="C3" s="42">
+      <c r="I12" s="19">
+        <v>23178</v>
+      </c>
+      <c r="K12" s="16">
         <v>10</v>
       </c>
-      <c r="D3" s="42">
+      <c r="L12" s="17">
         <v>29</v>
       </c>
-      <c r="E3" s="42">
-        <v>11499</v>
-      </c>
-      <c r="F3" s="51">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42">
-        <v>4</v>
-      </c>
-      <c r="D4" s="42">
-        <v>32</v>
-      </c>
-      <c r="E4" s="42">
-        <v>11501</v>
-      </c>
-      <c r="F4" s="51">
+      <c r="M12" s="63">
+        <v>24610</v>
+      </c>
+      <c r="N12" s="17">
+        <v>6</v>
+      </c>
+      <c r="O12" s="17">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42">
-        <v>1</v>
-      </c>
-      <c r="C5" s="42">
-        <v>7</v>
-      </c>
-      <c r="D5" s="42">
-        <v>32</v>
-      </c>
-      <c r="E5" s="42">
-        <v>11501</v>
-      </c>
-      <c r="F5" s="51">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42">
-        <v>1</v>
-      </c>
-      <c r="C6" s="42">
-        <v>3</v>
-      </c>
-      <c r="D6" s="42">
-        <v>18</v>
-      </c>
-      <c r="E6" s="42">
-        <v>11505</v>
-      </c>
-      <c r="F6" s="51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42">
-        <v>1</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1</v>
-      </c>
-      <c r="D7" s="42">
-        <v>31</v>
-      </c>
-      <c r="E7" s="42">
-        <v>11501</v>
-      </c>
-      <c r="F7" s="51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42">
-        <v>1</v>
-      </c>
-      <c r="C8" s="42">
-        <v>9</v>
-      </c>
-      <c r="D8" s="42">
-        <v>20</v>
-      </c>
-      <c r="E8" s="42">
-        <v>11498</v>
-      </c>
-      <c r="F8" s="51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42">
-        <v>1</v>
-      </c>
-      <c r="C9" s="42">
-        <v>2</v>
-      </c>
-      <c r="D9" s="42">
-        <v>31</v>
-      </c>
-      <c r="E9" s="42">
-        <v>11499</v>
-      </c>
-      <c r="F9" s="51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42">
-        <v>1</v>
-      </c>
-      <c r="C10" s="42">
-        <v>6</v>
-      </c>
-      <c r="D10" s="42">
-        <v>25</v>
-      </c>
-      <c r="E10" s="42">
-        <v>11500</v>
-      </c>
-      <c r="F10" s="51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
-        <v>10</v>
-      </c>
-      <c r="B11" s="53">
-        <v>1</v>
-      </c>
-      <c r="C11" s="53">
-        <v>5</v>
-      </c>
-      <c r="D11" s="53">
-        <v>32</v>
-      </c>
-      <c r="E11" s="53">
-        <v>11498</v>
-      </c>
-      <c r="F11" s="54">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42">
-        <v>0</v>
-      </c>
-      <c r="C12" s="42">
-        <v>5</v>
-      </c>
-      <c r="D12" s="42">
-        <v>25</v>
-      </c>
-      <c r="E12" s="42">
-        <v>10501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
-        <v>12</v>
-      </c>
-      <c r="B13" s="42">
-        <v>0</v>
-      </c>
-      <c r="C13" s="42">
-        <v>3</v>
-      </c>
-      <c r="D13" s="42">
-        <v>28</v>
-      </c>
-      <c r="E13" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
-        <v>13</v>
-      </c>
-      <c r="B14" s="42">
-        <v>0</v>
-      </c>
-      <c r="C14" s="42">
-        <v>20</v>
-      </c>
-      <c r="D14" s="42">
+      <c r="P12" s="63">
+        <v>23178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
-        <v>14</v>
-      </c>
-      <c r="B15" s="42">
-        <v>0</v>
-      </c>
-      <c r="C15" s="42">
-        <v>4</v>
-      </c>
-      <c r="D15" s="42">
-        <v>45</v>
-      </c>
-      <c r="E15" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="42">
-        <v>15</v>
-      </c>
-      <c r="B16" s="42">
-        <v>0</v>
-      </c>
-      <c r="C16" s="42">
-        <v>13</v>
-      </c>
-      <c r="D16" s="42">
-        <v>18</v>
-      </c>
-      <c r="E16" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42">
-        <v>0</v>
-      </c>
-      <c r="C17" s="42">
-        <v>18</v>
-      </c>
-      <c r="D17" s="42">
-        <v>27</v>
-      </c>
-      <c r="E17" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="42">
-        <v>17</v>
-      </c>
-      <c r="B18" s="42">
-        <v>0</v>
-      </c>
-      <c r="C18" s="42">
-        <v>7</v>
-      </c>
-      <c r="D18" s="42">
-        <v>33</v>
-      </c>
-      <c r="E18" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="42">
-        <v>18</v>
-      </c>
-      <c r="B19" s="42">
-        <v>0</v>
-      </c>
-      <c r="C19" s="42">
-        <v>6</v>
-      </c>
-      <c r="D19" s="42">
-        <v>37</v>
-      </c>
-      <c r="E19" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="42">
-        <v>19</v>
-      </c>
-      <c r="B20" s="42">
-        <v>0</v>
-      </c>
-      <c r="C20" s="42">
-        <v>16</v>
-      </c>
-      <c r="D20" s="42">
-        <v>31</v>
-      </c>
-      <c r="E20" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
-        <v>20</v>
-      </c>
-      <c r="B21" s="42">
-        <v>0</v>
-      </c>
-      <c r="C21" s="42">
-        <v>2</v>
-      </c>
-      <c r="D21" s="42">
-        <v>36</v>
-      </c>
-      <c r="E21" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="42">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42">
-        <v>0</v>
-      </c>
-      <c r="C22" s="42">
-        <v>19</v>
-      </c>
-      <c r="D22" s="42">
-        <v>29</v>
-      </c>
-      <c r="E22" s="42">
-        <v>10501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42">
-        <v>0</v>
-      </c>
-      <c r="C23" s="42">
-        <v>8</v>
-      </c>
-      <c r="D23" s="42">
-        <v>28</v>
-      </c>
-      <c r="E23" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="42">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42">
-        <v>0</v>
-      </c>
-      <c r="C24" s="42">
-        <v>9</v>
-      </c>
-      <c r="D24" s="42">
-        <v>33</v>
-      </c>
-      <c r="E24" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="42">
-        <v>24</v>
-      </c>
-      <c r="B25" s="42">
-        <v>0</v>
-      </c>
-      <c r="C25" s="42">
-        <v>10</v>
-      </c>
-      <c r="D25" s="42">
-        <v>23</v>
-      </c>
-      <c r="E25" s="42">
-        <v>10501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
-        <v>25</v>
-      </c>
-      <c r="B26" s="42">
-        <v>0</v>
-      </c>
-      <c r="C26" s="42">
-        <v>14</v>
-      </c>
-      <c r="D26" s="42">
-        <v>39</v>
-      </c>
-      <c r="E26" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="42">
-        <v>26</v>
-      </c>
-      <c r="B27" s="42">
-        <v>0</v>
-      </c>
-      <c r="C27" s="42">
-        <v>12</v>
-      </c>
-      <c r="D27" s="42">
-        <v>21</v>
-      </c>
-      <c r="E27" s="42">
-        <v>10501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="42">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42">
-        <v>0</v>
-      </c>
-      <c r="C28" s="42">
-        <v>15</v>
-      </c>
-      <c r="D28" s="42">
+      <c r="L13">
+        <f>AVERAGE(L3:L12)</f>
+        <v>28.2</v>
+      </c>
+      <c r="M13" s="64">
+        <f>AVERAGE(M3:M12)</f>
+        <v>24210.1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGE(O3:O12)</f>
+        <v>28.2</v>
+      </c>
+      <c r="P13" s="64">
+        <f>AVERAGE(P3:P12)</f>
+        <v>22854.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="42">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42">
-        <v>0</v>
-      </c>
-      <c r="C29" s="42">
-        <v>1</v>
-      </c>
-      <c r="D29" s="42">
-        <v>21</v>
-      </c>
-      <c r="E29" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="42">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42">
-        <v>0</v>
-      </c>
-      <c r="C30" s="42">
-        <v>17</v>
-      </c>
-      <c r="D30" s="42">
-        <v>32</v>
-      </c>
-      <c r="E30" s="42">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="42">
-        <v>30</v>
-      </c>
-      <c r="B31" s="42">
-        <v>0</v>
-      </c>
-      <c r="C31" s="42">
-        <v>11</v>
-      </c>
-      <c r="D31" s="42">
-        <v>20</v>
-      </c>
-      <c r="E31" s="42">
-        <v>10500</v>
+      <c r="L15" s="64">
+        <f>M13-P13</f>
+        <v>1356</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1855,25 +2299,25 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
       <c r="M1" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -1881,52 +2325,52 @@
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="O2" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2571,10 +3015,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,126 +3074,126 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
       <c r="M1" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="31"/>
+      <c r="U1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="32"/>
+      <c r="W1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="O2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="S2" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>29</v>
+      <c r="Z2" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2825,7 +3269,7 @@
         <f>(B3-N3)^2</f>
         <v>441</v>
       </c>
-      <c r="X3" s="39">
+      <c r="X3" s="40">
         <f>(C3-O3)^2</f>
         <v>0.23824827664361628</v>
       </c>
@@ -2833,7 +3277,7 @@
         <f>(B3-R3)^2</f>
         <v>16</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3" s="35">
         <f>(C3-S3)^2</f>
         <v>0.14855198288527904</v>
       </c>
@@ -2911,7 +3355,7 @@
         <f>(B4-N4)^2</f>
         <v>361</v>
       </c>
-      <c r="X4" s="40">
+      <c r="X4" s="41">
         <f>(C4-O4)^2</f>
         <v>0.87096666109348142</v>
       </c>
@@ -2919,7 +3363,7 @@
         <f t="shared" ref="Y4:Y12" si="0">(B4-R4)^2</f>
         <v>81</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="Z4" s="36">
         <f t="shared" ref="Z4:Z12" si="1">(C4-S4)^2</f>
         <v>1.4100184108490865</v>
       </c>
@@ -2997,7 +3441,7 @@
         <f>(B5-N5)^2</f>
         <v>144</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="41">
         <f>(C5-O5)^2</f>
         <v>4.9507661264661218</v>
       </c>
@@ -3005,7 +3449,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="36">
         <f t="shared" si="1"/>
         <v>4.1213883146447721</v>
       </c>
@@ -3083,7 +3527,7 @@
         <f>(B6-N6)^2</f>
         <v>36</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="41">
         <f>(C6-O6)^2</f>
         <v>0.10105866219074484</v>
       </c>
@@ -3091,7 +3535,7 @@
         <f t="shared" si="0"/>
         <v>441</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6" s="36">
         <f t="shared" si="1"/>
         <v>0.17972595419433526</v>
       </c>
@@ -3169,7 +3613,7 @@
         <f>(B7-N7)^2</f>
         <v>169</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="41">
         <f>(C7-O7)^2</f>
         <v>0.36751032962074809</v>
       </c>
@@ -3177,7 +3621,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="36">
         <f t="shared" si="1"/>
         <v>1.0873407378627267</v>
       </c>
@@ -3255,7 +3699,7 @@
         <f>(B8-N8)^2</f>
         <v>441</v>
       </c>
-      <c r="X8" s="40">
+      <c r="X8" s="41">
         <f>(C8-O8)^2</f>
         <v>1.3272454935140789E-2</v>
       </c>
@@ -3263,7 +3707,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="36">
         <f t="shared" si="1"/>
         <v>0.22664382397121624</v>
       </c>
@@ -3341,7 +3785,7 @@
         <f>(B9-N9)^2</f>
         <v>121</v>
       </c>
-      <c r="X9" s="40">
+      <c r="X9" s="41">
         <f>(C9-O9)^2</f>
         <v>4.0345831373700125E-2</v>
       </c>
@@ -3349,7 +3793,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9" s="36">
         <f t="shared" si="1"/>
         <v>5.5955242631467615E-3</v>
       </c>
@@ -3427,7 +3871,7 @@
         <f>(B10-N10)^2</f>
         <v>361</v>
       </c>
-      <c r="X10" s="40">
+      <c r="X10" s="41">
         <f>(C10-O10)^2</f>
         <v>1.0665636447903046</v>
       </c>
@@ -3435,7 +3879,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10" s="36">
         <f t="shared" si="1"/>
         <v>0.54635520885291511</v>
       </c>
@@ -3513,7 +3957,7 @@
         <f>(B11-N11)^2</f>
         <v>0</v>
       </c>
-      <c r="X11" s="40">
+      <c r="X11" s="41">
         <f>(C11-O11)^2</f>
         <v>1.0778625310626854E-2</v>
       </c>
@@ -3521,7 +3965,7 @@
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11" s="36">
         <f t="shared" si="1"/>
         <v>0.10679227165847219</v>
       </c>
@@ -3599,7 +4043,7 @@
         <f>(B12-N12)^2</f>
         <v>9</v>
       </c>
-      <c r="X12" s="41">
+      <c r="X12" s="42">
         <f>(C12-O12)^2</f>
         <v>2.9923439547006838</v>
       </c>
@@ -3607,14 +4051,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="36">
+      <c r="Z12" s="37">
         <f t="shared" si="1"/>
         <v>2.2813285432360439</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <f>_xlfn.VAR.P(B3:B12)</f>
@@ -3660,24 +4104,24 @@
         <f>_xlfn.VAR.P(S3:S12)</f>
         <v>1.9370906690393069E-2</v>
       </c>
-      <c r="U13" s="28" t="s">
-        <v>25</v>
+      <c r="U13" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="V13" s="19">
         <f>SUM(U3:V12)</f>
         <v>8.9865450413263748</v>
       </c>
-      <c r="W13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" s="32">
+      <c r="W13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="33">
         <f>SUM(W3:X12)</f>
         <v>2093.6518545671252</v>
       </c>
       <c r="Y13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z13" s="33">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="34">
         <f>SUM(Y3:Z12)</f>
         <v>1058.1137407724179</v>
       </c>
@@ -3810,7 +4254,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
     </row>
@@ -3825,7 +4269,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3836,7 +4280,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3850,7 +4294,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1"/>
       <c r="G34"/>
@@ -3863,7 +4307,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3902,19 +4346,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3972,7 +4416,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
       <c r="C5" s="13">
@@ -3989,7 +4433,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>1</v>
       </c>
       <c r="C6" s="13">
@@ -4006,7 +4450,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <v>1</v>
       </c>
       <c r="C7" s="13">
@@ -4023,7 +4467,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="13">
@@ -4040,7 +4484,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="43">
         <v>1</v>
       </c>
       <c r="C9" s="13">
@@ -4057,7 +4501,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="43">
         <v>1</v>
       </c>
       <c r="C10" s="13">
@@ -4108,7 +4552,7 @@
       <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="43">
         <v>0</v>
       </c>
       <c r="C13" s="13">
@@ -4125,7 +4569,7 @@
       <c r="A14" s="13">
         <v>3</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="43">
         <v>0</v>
       </c>
       <c r="C14" s="13">
@@ -4142,7 +4586,7 @@
       <c r="A15" s="13">
         <v>4</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="43">
         <v>0</v>
       </c>
       <c r="C15" s="13">
@@ -4159,7 +4603,7 @@
       <c r="A16" s="13">
         <v>5</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="43">
         <v>0</v>
       </c>
       <c r="C16" s="13">
@@ -4176,7 +4620,7 @@
       <c r="A17" s="13">
         <v>6</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="43">
         <v>0</v>
       </c>
       <c r="C17" s="13">
@@ -4193,7 +4637,7 @@
       <c r="A18" s="13">
         <v>7</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="43">
         <v>0</v>
       </c>
       <c r="C18" s="13">
@@ -4210,7 +4654,7 @@
       <c r="A19" s="13">
         <v>8</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="43">
         <v>0</v>
       </c>
       <c r="C19" s="13">
@@ -4227,7 +4671,7 @@
       <c r="A20" s="13">
         <v>9</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="43">
         <v>0</v>
       </c>
       <c r="C20" s="13">
@@ -4244,7 +4688,7 @@
       <c r="A21" s="13">
         <v>10</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="43">
         <v>0</v>
       </c>
       <c r="C21" s="13">
@@ -4261,7 +4705,7 @@
       <c r="A22" s="13">
         <v>11</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="43">
         <v>0</v>
       </c>
       <c r="C22" s="13">
@@ -4278,7 +4722,7 @@
       <c r="A23" s="13">
         <v>12</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="43">
         <v>0</v>
       </c>
       <c r="C23" s="13">
@@ -4295,7 +4739,7 @@
       <c r="A24" s="13">
         <v>13</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="43">
         <v>0</v>
       </c>
       <c r="C24" s="13">
@@ -4312,7 +4756,7 @@
       <c r="A25" s="13">
         <v>14</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="43">
         <v>0</v>
       </c>
       <c r="C25" s="13">
@@ -4329,7 +4773,7 @@
       <c r="A26" s="13">
         <v>15</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="43">
         <v>0</v>
       </c>
       <c r="C26" s="13">
@@ -4346,7 +4790,7 @@
       <c r="A27" s="13">
         <v>16</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="43">
         <v>0</v>
       </c>
       <c r="C27" s="13">
@@ -4363,7 +4807,7 @@
       <c r="A28" s="13">
         <v>17</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="43">
         <v>0</v>
       </c>
       <c r="C28" s="13">
@@ -4380,7 +4824,7 @@
       <c r="A29" s="13">
         <v>18</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="43">
         <v>0</v>
       </c>
       <c r="C29" s="13">
@@ -4397,7 +4841,7 @@
       <c r="A30" s="13">
         <v>19</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="43">
         <v>0</v>
       </c>
       <c r="C30" s="13">
@@ -4444,34 +4888,34 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5301,22 +5745,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/training_approximate.xlsx
+++ b/training_approximate.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/mixtape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6067958-F62C-B242-9163-7C335B07DCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC81CB-1546-4247-B335-55497B4D1298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33240" yWindow="1280" windowWidth="25400" windowHeight="19740" activeTab="1" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
+    <workbookView xWindow="-38400" yWindow="1280" windowWidth="35860" windowHeight="19740" activeTab="4" xr2:uid="{A3B62EC5-7F5B-6841-B5AB-E336239DA9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="9" r:id="rId1"/>
     <sheet name="matched sample" sheetId="2" r:id="rId2"/>
-    <sheet name="Random matches" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="reshaped data" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
-    <sheet name="bias adjustment" sheetId="4" r:id="rId7"/>
+    <sheet name="Failed matches" sheetId="10" r:id="rId3"/>
+    <sheet name="Random matches" sheetId="1" r:id="rId4"/>
+    <sheet name="Optimal matches" sheetId="3" r:id="rId5"/>
+    <sheet name="reshaped data" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="bias adjustment" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
   <si>
     <t>Trainees</t>
   </si>
@@ -181,14 +185,32 @@
   <si>
     <t>Non-trainee Matched Sample</t>
   </si>
+  <si>
+    <t>messedup</t>
+  </si>
+  <si>
+    <t>Age diff</t>
+  </si>
+  <si>
+    <t>GPA diff</t>
+  </si>
+  <si>
+    <t>ATT from optimal match</t>
+  </si>
+  <si>
+    <t>ATT from random match 1</t>
+  </si>
+  <si>
+    <t>ATT from random match 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -427,9 +449,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,82 +543,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -830,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,837 +860,837 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q22"/>
+      <selection activeCell="L1" sqref="L1:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="45"/>
+    <col min="1" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="L1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="47" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="L1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="52">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
         <v>31</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="34">
         <v>26629</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="34">
         <v>19</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="38">
         <v>11</v>
       </c>
-      <c r="G3" s="45">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45">
+      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+      <c r="H3" s="34">
         <v>29</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="39">
         <v>23178</v>
       </c>
-      <c r="L3" s="52">
-        <v>1</v>
-      </c>
-      <c r="M3" s="45">
+      <c r="L3" s="38">
+        <v>1</v>
+      </c>
+      <c r="M3" s="34">
         <v>31</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="34">
         <v>26629</v>
       </c>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="45">
+      <c r="O3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="34">
         <v>29</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="39">
         <v>23178</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="34">
         <v>31</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="34">
         <v>26633</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="34">
         <v>19</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="38">
         <v>12</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="34">
         <v>2</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="34">
         <v>39</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="39">
         <v>33817</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="38">
         <v>2</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="34">
         <v>31</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="34">
         <v>26633</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="38">
         <v>2</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="34">
         <v>39</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="39">
         <v>33817</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="34">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="34">
         <v>18</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="34">
         <v>15324</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="34">
         <v>15</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="38">
         <v>13</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="34">
         <v>3</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="34">
         <v>33</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="39">
         <v>27061</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="38">
         <v>3</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="34">
         <v>18</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="34">
         <v>15324</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="38">
         <v>3</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="34">
         <v>33</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="39">
         <v>27061</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="34">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="34">
         <v>32</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="34">
         <v>27717</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="34">
         <v>12</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="38">
         <v>14</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="34">
         <v>4</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="34">
         <v>46</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="39">
         <v>43109</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="38">
         <v>4</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="34">
         <v>32</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="34">
         <v>27717</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="38">
         <v>4</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="34">
         <v>46</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="39">
         <v>43109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="34">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="34">
         <v>32</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="34">
         <v>27725</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="34">
         <v>12</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="38">
         <v>15</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="34">
         <v>5</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="34">
         <v>32</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="39">
         <v>26040</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="38">
         <v>5</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="34">
         <v>32</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="34">
         <v>27725</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="38">
         <v>5</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="34">
         <v>32</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="39">
         <v>26040</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="34">
         <v>6</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="34">
         <v>25</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="34">
         <v>20762</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="34">
         <v>11</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="38">
         <v>16</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="34">
         <v>6</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="34">
         <v>39</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="39">
         <v>33815</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="38">
         <v>6</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="34">
         <v>25</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="34">
         <v>20762</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="38">
         <v>6</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="34">
         <v>39</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="39">
         <v>33815</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="34">
         <v>7</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="34">
         <v>32</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="34">
         <v>27716</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="34">
         <v>12</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="38">
         <v>17</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="34">
         <v>7</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="34">
         <v>31</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="39">
         <v>25052</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="38">
         <v>7</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="34">
         <v>32</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="34">
         <v>27716</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="38">
         <v>7</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="34">
         <v>31</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="39">
         <v>25052</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="34">
         <v>8</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="34">
         <v>32</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="34">
         <v>27719</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="34">
         <v>12</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="38">
         <v>18</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="34">
         <v>8</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="34">
         <v>33</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="39">
         <v>27060</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="38">
         <v>8</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="34">
         <v>32</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="34">
         <v>27719</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="38">
         <v>8</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="34">
         <v>33</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="39">
         <v>27060</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="34">
         <v>9</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="34">
         <v>20</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="34">
         <v>16723</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="34">
         <v>30</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="38">
         <v>19</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="34">
         <v>9</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="34">
         <v>25</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="39">
         <v>19787</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="38">
         <v>9</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="34">
         <v>20</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="34">
         <v>16723</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="38">
         <v>9</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="34">
         <v>25</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="39">
         <v>19787</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="40">
         <v>10</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="41">
         <v>10</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="41">
         <v>29</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="41">
         <v>24552</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="41">
         <v>17</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="38">
         <v>20</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="34">
         <v>10</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="34">
         <v>29</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="39">
         <v>23173</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="40">
         <v>10</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="41">
         <v>29</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="41">
         <v>24552</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="38">
         <v>10</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="34">
         <v>29</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="39">
         <v>23173</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="34">
         <f>AVERAGE(C3:C12)</f>
         <v>28.2</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="43">
         <f>AVERAGE(D3:D12)</f>
         <v>24150</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="38">
         <v>21</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="34">
         <v>11</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="34">
         <v>27</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="39">
         <v>21416</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="38">
         <v>11</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="34">
         <v>27</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="39">
         <v>21416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F14" s="52">
+      <c r="F14" s="38">
         <v>22</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="34">
         <v>12</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="34">
         <v>32</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="39">
         <v>26040</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="38">
         <v>12</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="34">
         <v>32</v>
       </c>
-      <c r="Q14" s="53">
+      <c r="Q14" s="39">
         <v>26040</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F15" s="52">
+      <c r="F15" s="38">
         <v>23</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="34">
         <v>13</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="34">
         <v>20</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="39">
         <v>16246</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="38">
         <v>13</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="34">
         <v>20</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="39">
         <v>16246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F16" s="52">
+      <c r="F16" s="38">
         <v>24</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="34">
         <v>14</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="34">
         <v>41</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="39">
         <v>36316</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="38">
         <v>14</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="34">
         <v>41</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="39">
         <v>36316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F17" s="52">
+      <c r="F17" s="38">
         <v>25</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="34">
         <v>15</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="34">
         <v>18</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="39">
         <v>15046</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="38">
         <v>15</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="34">
         <v>18</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="39">
         <v>15046</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F18" s="52">
+      <c r="F18" s="38">
         <v>26</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="34">
         <v>16</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="34">
         <v>29</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="39">
         <v>23178</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="38">
         <v>16</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="34">
         <v>29</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="39">
         <v>23178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F19" s="52">
+      <c r="F19" s="38">
         <v>27</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="34">
         <v>17</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="34">
         <v>49</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="39">
         <v>47559</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="38">
         <v>17</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="34">
         <v>49</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="39">
         <v>47559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F20" s="52">
+      <c r="F20" s="38">
         <v>28</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="34">
         <v>18</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="34">
         <v>32</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="39">
         <v>26040</v>
       </c>
-      <c r="O20" s="52">
+      <c r="O20" s="38">
         <v>18</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="34">
         <v>32</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="39">
         <v>26040</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F21" s="52">
+      <c r="F21" s="38">
         <v>29</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="34">
         <v>19</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="34">
         <v>27</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="39">
         <v>21418</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="38">
         <v>19</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="34">
         <v>27</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="39">
         <v>21418</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="54">
+      <c r="F22" s="40">
         <v>30</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="41">
         <v>20</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="41">
         <v>46</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="42">
         <v>43109</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="40">
         <v>20</v>
       </c>
-      <c r="P22" s="55">
+      <c r="P22" s="41">
         <v>46</v>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22" s="42">
         <v>43109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="34">
         <f>AVERAGE(H3:H22)</f>
         <v>32.85</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="43">
         <f>AVERAGE(I3:I22)</f>
         <v>27923</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="34">
         <f>AVERAGE(M3:M12)</f>
         <v>28.2</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="43">
         <f>AVERAGE(N3:N12)</f>
         <v>24150</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="34">
         <f>AVERAGE(P3:P22)</f>
         <v>32.85</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="43">
         <f>AVERAGE(Q3:Q22)</f>
         <v>27923</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="43">
         <f>D13-I23</f>
         <v>-3773</v>
       </c>
@@ -1691,551 +1710,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662159BE-45AD-1246-84FC-FA830DE6BF74}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="32"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="K1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="58" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="32"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>31</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3">
         <v>26693</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="45">
         <v>19</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="12">
         <v>19</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="13">
         <v>2</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="13">
         <v>31</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="15">
         <v>25052</v>
       </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>31</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="47">
         <v>26693</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="13">
         <v>2</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="13">
         <v>31</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P3" s="50">
         <v>25052</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>26691</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="45">
         <v>19</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>19</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4">
         <v>31</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="7">
         <v>25052</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4">
         <v>31</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="47">
         <v>26691</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4">
         <v>31</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="47">
         <v>25052</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>15392</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="45">
         <v>15</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>15</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="7">
         <v>15046</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5">
         <v>18</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="47">
         <v>15392</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5">
         <v>18</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5">
         <v>18</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="47">
         <v>15046</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="6">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6">
         <v>27776</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="45">
         <v>26</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>26</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6">
         <v>32</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="7">
         <v>26045</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="6">
         <v>4</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6">
         <v>32</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="47">
         <v>27776</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6">
         <v>32</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="47">
         <v>26045</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>32</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>27779</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="45">
         <v>26</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>26</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7">
         <v>32</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="7">
         <v>26045</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="6">
         <v>5</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7">
         <v>32</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="47">
         <v>27779</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7">
         <v>32</v>
       </c>
-      <c r="P7" s="62">
+      <c r="P7" s="47">
         <v>26045</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8">
         <v>20821</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="45">
         <v>11</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>11</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8">
         <v>25</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="7">
         <v>19787</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="6">
         <v>6</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8">
         <v>25</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="47">
         <v>20821</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8">
         <v>25</v>
       </c>
-      <c r="P8" s="62">
+      <c r="P8" s="47">
         <v>19787</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>32</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9">
         <v>27778</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="45">
         <v>26</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="6">
         <v>26</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9">
         <v>32</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="7">
         <v>26045</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="6">
         <v>7</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9">
         <v>32</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="47">
         <v>27778</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9">
         <v>32</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="47">
         <v>26045</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>32</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10">
         <v>27780</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="45">
         <v>26</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="6">
         <v>26</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10">
         <v>32</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="7">
         <v>26045</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="6">
         <v>8</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10">
         <v>32</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="47">
         <v>27780</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10">
         <v>32</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="47">
         <v>26045</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11">
         <v>16781</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="45">
         <v>30</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>30</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11">
         <v>20</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="7">
         <v>16246</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="6">
         <v>9</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11">
         <v>20</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="47">
         <v>16781</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11">
         <v>8</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11">
         <v>20</v>
       </c>
-      <c r="P11" s="62">
+      <c r="P11" s="47">
         <v>16246</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="9">
         <v>29</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <v>24610</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="46">
         <v>21</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="8">
         <v>21</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="9">
         <v>6</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="9">
         <v>29</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="11">
         <v>23178</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="8">
         <v>10</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>29</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="48">
         <v>24610</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="9">
         <v>6</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="9">
         <v>29</v>
       </c>
-      <c r="P12" s="63">
+      <c r="P12" s="48">
         <v>23178</v>
       </c>
     </row>
@@ -2247,7 +2266,7 @@
         <f>AVERAGE(L3:L12)</f>
         <v>28.2</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="49">
         <f>AVERAGE(M3:M12)</f>
         <v>24210.1</v>
       </c>
@@ -2258,7 +2277,7 @@
         <f>AVERAGE(O3:O12)</f>
         <v>28.2</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="49">
         <f>AVERAGE(P3:P12)</f>
         <v>22854.1</v>
       </c>
@@ -2267,7 +2286,7 @@
       <c r="K15" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="49">
         <f>M13-P13</f>
         <v>1356</v>
       </c>
@@ -2284,732 +2303,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734DA3BF-01C7-4C40-A46E-2B0705D78D30}">
-  <dimension ref="A1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3DEFFB-51C8-FD45-A74A-55C22725FF83}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H22"/>
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="49">
+        <v>21416</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" s="49">
+        <v>27059</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4" s="49">
+        <v>33815</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" s="49">
+        <v>30297</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" s="49">
+        <v>27061</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7" s="49">
+        <v>21418</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8" s="49">
+        <v>36316</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9" s="49">
+        <v>36316</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10" s="49">
+        <v>38940</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="C11" s="49">
+        <v>47559</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12" s="49">
+        <v>21416</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13" s="49">
+        <v>43112</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734DA3BF-01C7-4C40-A46E-2B0705D78D30}">
+  <dimension ref="A1:U26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="Q2">
+        <f>(B3-J3)^2</f>
+        <v>441</v>
+      </c>
+      <c r="R2" s="26">
+        <f>(C3-K3)^2</f>
+        <v>0.23824827664361628</v>
+      </c>
+      <c r="T2">
+        <f>(B3-N3)^2</f>
+        <v>16</v>
+      </c>
+      <c r="U2" s="26">
+        <f>(C3-O3)^2</f>
+        <v>0.14855198288527904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
         <v>18</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="14">
         <v>1.2768669668126549</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="13">
         <v>9500</v>
       </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
         <v>20</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="14">
         <v>1.8904439599777811</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="15">
         <v>8500</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="12">
         <v>4</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="13">
         <v>39</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="14">
         <v>1.7649737959429348</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="13">
         <v>12775</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="6">
         <v>13</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3">
         <v>22</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="1">
         <v>1.662291385973246</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="7">
         <v>8950</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="0">(B4-J4)^2</f>
+        <v>361</v>
+      </c>
+      <c r="R3" s="26">
+        <f t="shared" ref="R3:R12" si="1">(C4-K4)^2</f>
+        <v>0.87096666109348142</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T12" si="2">(B4-N4)^2</f>
+        <v>81</v>
+      </c>
+      <c r="U3" s="26">
+        <f t="shared" ref="U3:U12" si="3">(C4-O4)^2</f>
+        <v>1.4100184108490865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>29</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="1">
         <v>2.8019828173782786</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>12250</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="1">
         <v>1.77610720900872</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="7">
         <v>10075</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="6">
         <v>20</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4">
         <v>48</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="1">
         <v>1.868726871191231</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4">
         <v>14800</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="6">
         <v>5</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4">
         <v>38</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="1">
         <v>1.6145408563338297</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="7">
         <v>12550</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="R4" s="26">
+        <f t="shared" si="1"/>
+        <v>4.9507661264661218</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U4" s="26">
+        <f t="shared" si="3"/>
+        <v>4.1213883146447721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="1">
         <v>3.9205642309579938</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>11000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="1">
         <v>1.837511566218393</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="7">
         <v>8725</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="6">
         <v>12</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5">
         <v>36</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="1">
         <v>1.695532517371394</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5">
         <v>12100</v>
       </c>
-      <c r="M5" s="12">
-        <v>1</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="1">
         <v>1.8904439599777811</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="7">
         <v>8500</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R5" s="26">
+        <f t="shared" si="1"/>
+        <v>0.10105866219074484</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="U5" s="26">
+        <f t="shared" si="3"/>
+        <v>0.17972595419433526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>27</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="1">
         <v>2.2926678508031757</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6">
         <v>11750</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6">
         <v>39</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="1">
         <v>1.7649737959429348</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="7">
         <v>12775</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6">
         <v>33</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="1">
         <v>1.9747705998072842</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6">
         <v>11425</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="6">
         <v>20</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6">
         <v>48</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="1">
         <v>1.868726871191231</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="7">
         <v>14800</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="R6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.36751032962074809</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="U6" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0873407378627267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>33</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="1">
         <v>2.4966702622946206</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>13250</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7">
         <v>38</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="1">
         <v>1.6145408563338297</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="7">
         <v>12550</v>
       </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>20</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="1">
         <v>1.8904439599777811</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7">
         <v>8500</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="6">
         <v>15</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7">
         <v>43</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="1">
         <v>1.4539139447099576</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="7">
         <v>13675</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="R7" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3272454935140789E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U7" s="26">
+        <f t="shared" si="3"/>
+        <v>0.22664382397121624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="1">
         <v>1.3387078036620916</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8">
         <v>10500</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8">
         <v>29</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="1">
         <v>1.7375626797161705</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="7">
         <v>10525</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="6">
         <v>15</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8">
         <v>43</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="1">
         <v>1.4539139447099576</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8">
         <v>13675</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="6">
         <v>9</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8">
         <v>24</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="1">
         <v>1.8147790419985577</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="7">
         <v>9400</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="R8" s="26">
+        <f t="shared" si="1"/>
+        <v>4.0345831373700125E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="U8" s="26">
+        <f t="shared" si="3"/>
+        <v>5.5955242631467615E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="1">
         <v>1.662759442733091</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9">
         <v>9750</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>7</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9">
         <v>39</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="1">
         <v>1.5659991530066768</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="7">
         <v>12775</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="6">
         <v>18</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9">
         <v>30</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="1">
         <v>1.8636221604626391</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9">
         <v>9000</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="6">
         <v>6</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9">
         <v>29</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="1">
         <v>1.7375626797161705</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="7">
         <v>10525</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="R9" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0665636447903046</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="26">
+        <f t="shared" si="3"/>
+        <v>0.54635520885291511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="1">
         <v>2.598744835539557</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10">
         <v>10000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <v>8</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10">
         <v>33</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="1">
         <v>1.9747705998072842</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="7">
         <v>11425</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="6">
         <v>7</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10">
         <v>39</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="1">
         <v>1.5659991530066768</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10">
         <v>12775</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="6">
         <v>17</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10">
         <v>19</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="1">
         <v>1.8595863891608966</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="7">
         <v>8275</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0778625310626854E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="U10" s="26">
+        <f t="shared" si="3"/>
+        <v>0.10679227165847219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>21</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="1">
         <v>1.9413317247167639</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11">
         <v>10250</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>9</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11">
         <v>24</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="1">
         <v>1.8147790419985577</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="7">
         <v>9400</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11">
         <v>21</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="1">
         <v>1.837511566218393</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11">
         <v>8725</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="6">
         <v>5</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11">
         <v>38</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="1">
         <v>1.6145408563338297</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="7">
         <v>12550</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R11" s="26">
+        <f t="shared" si="1"/>
+        <v>2.9923439547006838</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <f t="shared" si="3"/>
+        <v>2.2813285432360439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="9">
         <v>30</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="10">
         <v>3.3740289080760242</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <v>12500</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>10</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12">
         <v>30</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="1">
         <v>2.0152083863823114</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="7">
         <v>10750</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="8">
         <v>11</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="9">
         <v>33</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="10">
         <v>1.644189622274975</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>11425</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="8">
         <v>18</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="9">
         <v>30</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="10">
         <v>1.8636221604626391</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="11">
         <v>9000</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E13" s="12">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E13" s="6">
         <v>11</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13">
         <v>33</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="1">
         <v>1.644189622274975</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="7">
         <v>11425</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E14" s="12">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E14" s="6">
         <v>12</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14">
         <v>36</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="1">
         <v>1.695532517371394</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="7">
         <v>12100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="12">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E15" s="6">
         <v>13</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15">
         <v>22</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="1">
         <v>1.662291385973246</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="7">
         <v>8950</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E16" s="12">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E16" s="6">
         <v>14</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16">
         <v>18</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="1">
         <v>1.8942354756377815</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="7">
         <v>8050</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>15</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17">
         <v>43</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="1">
         <v>1.4539139447099576</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="7">
         <v>13675</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>16</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18">
         <v>39</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="1">
         <v>1.8831909130059583</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="7">
         <v>12775</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>17</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="1">
         <v>1.8595863891608966</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="7">
         <v>8275</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>18</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20">
         <v>30</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="1">
         <v>1.8636221604626391</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="7">
         <v>9000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>19</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21">
         <v>51</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="1">
         <v>1.9645089981485191</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="7">
         <v>15475</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="16">
+      <c r="E22" s="8">
         <v>20</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="9">
         <v>48</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="10">
         <v>1.868726871191231</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="11">
         <v>14800</v>
       </c>
     </row>
@@ -3023,12 +3432,12 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>SQRT((B3-J3)^2 + (C3-K3)^2)</f>
-        <v>21.005671812075985</v>
+        <f>SQRT(SUM(Q2:Q12,R2:R12))</f>
+        <v>45.756440580175429</v>
       </c>
       <c r="B26">
-        <f>SQRT((B3-N3)^2 + (C3-O3)^2)</f>
-        <v>4.0185260958323115</v>
+        <f>SQRT(SUM(T2:T12,U2:U12))</f>
+        <v>32.528660297842229</v>
       </c>
     </row>
   </sheetData>
@@ -3042,12 +3451,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51201114-4A4E-3B4E-91D8-77E1E6A085FD}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3073,1182 +3482,1198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="6" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="31" t="s">
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="56"/>
+      <c r="W1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="32"/>
+      <c r="Z1" s="56"/>
     </row>
     <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
         <v>18</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="14">
         <v>1.2768669668126549</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="13">
         <v>9500</v>
       </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
         <v>20</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="14">
         <v>1.8904439599777811</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="15">
         <v>8500</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="6">
         <v>14</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3">
         <v>18</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3">
         <v>1.89</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="7">
         <v>8050</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="12">
         <v>4</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="13">
         <v>39</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="14">
         <v>1.7649737959429348</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="13">
         <v>12775</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="6">
         <v>13</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3">
         <v>22</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="1">
         <v>1.662291385973246</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3">
         <v>8950</v>
       </c>
-      <c r="U3" s="20">
-        <f>(B3-J3)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="23">
-        <f>(C3-K3)^2</f>
+      <c r="U3" s="12">
+        <f t="shared" ref="U3:U12" si="0">(B3-J3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <f t="shared" ref="V3:V12" si="1">(C3-K3)^2</f>
         <v>0.37593211638551394</v>
       </c>
-      <c r="W3" s="20">
-        <f>(B3-N3)^2</f>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:W12" si="2">(B3-N3)^2</f>
         <v>441</v>
       </c>
-      <c r="X3" s="40">
-        <f>(C3-O3)^2</f>
+      <c r="X3" s="30">
+        <f t="shared" ref="X3:X12" si="3">(C3-O3)^2</f>
         <v>0.23824827664361628</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="12">
         <f>(B3-R3)^2</f>
         <v>16</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="25">
         <f>(C3-S3)^2</f>
         <v>0.14855198288527904</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>29</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="1">
         <v>2.8019828173782786</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>12250</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="1">
         <v>1.77610720900872</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="7">
         <v>10075</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4">
         <v>29</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4">
         <v>1.74</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="7">
         <v>10525</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="6">
         <v>20</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4">
         <v>48</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="1">
         <v>1.868726871191231</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4">
         <v>14800</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="6">
         <v>5</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4">
         <v>38</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="1">
         <v>1.6145408563338297</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4">
         <v>12550</v>
       </c>
-      <c r="U4" s="12">
-        <f>(B4-J4)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
-        <f>(C4-K4)^2</f>
+      <c r="U4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
         <v>1.1278075044067062</v>
       </c>
-      <c r="W4" s="12">
-        <f>(B4-N4)^2</f>
+      <c r="W4" s="6">
+        <f t="shared" si="2"/>
         <v>361</v>
       </c>
-      <c r="X4" s="41">
-        <f>(C4-O4)^2</f>
+      <c r="X4" s="31">
+        <f t="shared" si="3"/>
         <v>0.87096666109348142</v>
       </c>
-      <c r="Y4" s="12">
-        <f t="shared" ref="Y4:Y12" si="0">(B4-R4)^2</f>
+      <c r="Y4" s="6">
+        <f t="shared" ref="Y4:Y12" si="4">(B4-R4)^2</f>
         <v>81</v>
       </c>
-      <c r="Z4" s="36">
-        <f t="shared" ref="Z4:Z12" si="1">(C4-S4)^2</f>
+      <c r="Z4" s="26">
+        <f t="shared" ref="Z4:Z12" si="5">(C4-S4)^2</f>
         <v>1.4100184108490865</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="1">
         <v>3.9205642309579938</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>11000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="1">
         <v>1.837511566218393</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="7">
         <v>8725</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="6">
         <v>9</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5">
         <v>24</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5">
         <v>1.81</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="7">
         <v>9400</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="6">
         <v>12</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5">
         <v>36</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="1">
         <v>1.695532517371394</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5">
         <v>12100</v>
       </c>
-      <c r="Q5" s="12">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13">
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="1">
         <v>1.8904439599777811</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5">
         <v>8500</v>
       </c>
-      <c r="U5" s="12">
-        <f>(B5-J5)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
-        <f>(C5-K5)^2</f>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="1"/>
         <v>4.4544813729993074</v>
       </c>
-      <c r="W5" s="12">
-        <f>(B5-N5)^2</f>
+      <c r="W5" s="6">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="X5" s="41">
-        <f>(C5-O5)^2</f>
+      <c r="X5" s="31">
+        <f t="shared" si="3"/>
         <v>4.9507661264661218</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="6">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Z5" s="26">
+        <f t="shared" si="5"/>
+        <v>4.1213883146447721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2926678508031757</v>
+      </c>
+      <c r="D6">
+        <v>11750</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.7649737959429348</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12775</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>1.78</v>
+      </c>
+      <c r="L6" s="7">
+        <v>10075</v>
+      </c>
+      <c r="M6" s="6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.9747705998072842</v>
+      </c>
+      <c r="P6">
+        <v>11425</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>48</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.868726871191231</v>
+      </c>
+      <c r="T6">
+        <v>14800</v>
+      </c>
+      <c r="U6" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Z5" s="36">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
         <f t="shared" si="1"/>
-        <v>4.1213883146447721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+        <v>0.26282832524714717</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="X6" s="31">
+        <f t="shared" si="3"/>
+        <v>0.10105866219074484</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="Z6" s="26">
+        <f t="shared" si="5"/>
+        <v>0.17972595419433526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.4966702622946206</v>
+      </c>
+      <c r="D7">
+        <v>13250</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.6145408563338297</v>
+      </c>
+      <c r="H7" s="7">
+        <v>12550</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>1.97</v>
+      </c>
+      <c r="L7" s="7">
+        <v>11425</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.8904439599777811</v>
+      </c>
+      <c r="P7">
+        <v>8500</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <v>43</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.4539139447099576</v>
+      </c>
+      <c r="T7">
+        <v>13675</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27738156518548451</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="X7" s="31">
+        <f t="shared" si="3"/>
+        <v>0.36751032962074809</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="Z7" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0873407378627267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.3387078036620916</v>
+      </c>
+      <c r="D8">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.7375626797161705</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10525</v>
+      </c>
+      <c r="I8" s="6">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>1.66</v>
+      </c>
+      <c r="L8" s="7">
+        <v>8950</v>
+      </c>
+      <c r="M8" s="6">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>43</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.4539139447099576</v>
+      </c>
+      <c r="P8">
+        <v>13675</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.8147790419985577</v>
+      </c>
+      <c r="T8">
+        <v>9400</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.103228675427637</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="X8" s="31">
+        <f t="shared" si="3"/>
+        <v>1.3272454935140789E-2</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="13">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14">
-        <v>2.2926678508031757</v>
-      </c>
-      <c r="D6" s="13">
-        <v>11750</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="Z8" s="26">
+        <f t="shared" si="5"/>
+        <v>0.22664382397121624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.662759442733091</v>
+      </c>
+      <c r="D9">
+        <v>9750</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>39</v>
       </c>
-      <c r="G6" s="14">
-        <v>1.7649737959429348</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G9" s="1">
+        <v>1.5659991530066768</v>
+      </c>
+      <c r="H9" s="7">
         <v>12775</v>
       </c>
-      <c r="I6" s="12">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13">
-        <v>27</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1.78</v>
-      </c>
-      <c r="L6" s="15">
-        <v>10075</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="I9" s="6">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>1.86</v>
+      </c>
+      <c r="L9" s="7">
+        <v>8275</v>
+      </c>
+      <c r="M9" s="6">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.8636221604626391</v>
+      </c>
+      <c r="P9">
+        <v>9000</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>29</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.7375626797161705</v>
+      </c>
+      <c r="T9">
+        <v>10525</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8903837430960868E-2</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="X9" s="31">
+        <f t="shared" si="3"/>
+        <v>4.0345831373700125E-2</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="Z9" s="26">
+        <f t="shared" si="5"/>
+        <v>5.5955242631467615E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="N6" s="13">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.598744835539557</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>33</v>
       </c>
-      <c r="O6" s="14">
+      <c r="G10" s="1">
         <v>1.9747705998072842</v>
       </c>
-      <c r="P6" s="13">
+      <c r="H10" s="7">
         <v>11425</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>20</v>
       </c>
-      <c r="R6" s="13">
-        <v>48</v>
-      </c>
-      <c r="S6" s="14">
-        <v>1.868726871191231</v>
-      </c>
-      <c r="T6" s="13">
-        <v>14800</v>
-      </c>
-      <c r="U6" s="12">
-        <f>(B6-J6)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
-        <f>(C6-K6)^2</f>
-        <v>0.26282832524714717</v>
-      </c>
-      <c r="W6" s="12">
-        <f>(B6-N6)^2</f>
+      <c r="K10">
+        <v>1.89</v>
+      </c>
+      <c r="L10" s="7">
+        <v>8500</v>
+      </c>
+      <c r="M10" s="6">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.5659991530066768</v>
+      </c>
+      <c r="P10">
+        <v>12775</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>17</v>
+      </c>
+      <c r="R10">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.8595863891608966</v>
+      </c>
+      <c r="T10">
+        <v>8275</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50231924190399391</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="X10" s="31">
+        <f t="shared" si="3"/>
+        <v>1.0665636447903046</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="26">
+        <f t="shared" si="5"/>
+        <v>0.54635520885291511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.9413317247167639</v>
+      </c>
+      <c r="D11">
+        <v>10250</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.8147790419985577</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9400</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>1.84</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8725</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.837511566218393</v>
+      </c>
+      <c r="P11">
+        <v>8725</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>38</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1.6145408563338297</v>
+      </c>
+      <c r="T11">
+        <v>12550</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0268118434073993E-2</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="31">
+        <f t="shared" si="3"/>
+        <v>1.0778625310626854E-2</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="Z11" s="26">
+        <f t="shared" si="5"/>
+        <v>0.10679227165847219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3.3740289080760242</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.0152083863823114</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10750</v>
+      </c>
+      <c r="I12" s="8">
+        <v>10</v>
+      </c>
+      <c r="J12" s="9">
+        <v>30</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="L12" s="11">
+        <v>10750</v>
+      </c>
+      <c r="M12" s="8">
+        <v>11</v>
+      </c>
+      <c r="N12" s="9">
+        <v>33</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1.644189622274975</v>
+      </c>
+      <c r="P12" s="9">
+        <v>11425</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>18</v>
+      </c>
+      <c r="R12" s="9">
+        <v>30</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1.8636221604626391</v>
+      </c>
+      <c r="T12" s="9">
+        <v>9000</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8333942839055504</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X12" s="32">
+        <f t="shared" si="3"/>
+        <v>2.9923439547006838</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="27">
+        <f t="shared" si="5"/>
+        <v>2.2813285432360439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="41">
-        <f>(C6-O6)^2</f>
-        <v>0.10105866219074484</v>
-      </c>
-      <c r="Y6" s="12">
-        <f t="shared" si="0"/>
-        <v>441</v>
-      </c>
-      <c r="Z6" s="36">
-        <f t="shared" si="1"/>
-        <v>0.17972595419433526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="B13">
+        <f>AVERAGE(B3:B12)</f>
+        <v>24.3</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C3:C12)</f>
+        <v>2.3704324842974254</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D3:D12)</f>
+        <v>11075</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11</v>
+      </c>
+      <c r="F13">
         <v>33</v>
       </c>
-      <c r="C7" s="14">
-        <v>2.4966702622946206</v>
-      </c>
-      <c r="D7" s="13">
-        <v>13250</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13">
-        <v>38</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1.6145408563338297</v>
-      </c>
-      <c r="H7" s="15">
-        <v>12550</v>
-      </c>
-      <c r="I7" s="12">
-        <v>8</v>
-      </c>
-      <c r="J7" s="13">
-        <v>33</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1.97</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="G13" s="1">
+        <v>1.644189622274975</v>
+      </c>
+      <c r="H13" s="7">
         <v>11425</v>
       </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13">
-        <v>20</v>
-      </c>
-      <c r="O7" s="14">
-        <v>1.8904439599777811</v>
-      </c>
-      <c r="P7" s="13">
-        <v>8500</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>15</v>
-      </c>
-      <c r="R7" s="13">
-        <v>43</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1.4539139447099576</v>
-      </c>
-      <c r="T7" s="13">
-        <v>13675</v>
-      </c>
-      <c r="U7" s="12">
-        <f>(B7-J7)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
-        <f>(C7-K7)^2</f>
-        <v>0.27738156518548451</v>
-      </c>
-      <c r="W7" s="12">
-        <f>(B7-N7)^2</f>
-        <v>169</v>
-      </c>
-      <c r="X7" s="41">
-        <f>(C7-O7)^2</f>
-        <v>0.36751032962074809</v>
-      </c>
-      <c r="Y7" s="12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="Z7" s="36">
-        <f t="shared" si="1"/>
-        <v>1.0873407378627267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1.3387078036620916</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10500</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1.7375626797161705</v>
-      </c>
-      <c r="H8" s="15">
-        <v>10525</v>
-      </c>
-      <c r="I8" s="12">
-        <v>13</v>
-      </c>
-      <c r="J8" s="13">
-        <v>22</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1.66</v>
-      </c>
-      <c r="L8" s="15">
-        <v>8950</v>
-      </c>
-      <c r="M8" s="12">
-        <v>15</v>
-      </c>
-      <c r="N8" s="13">
-        <v>43</v>
-      </c>
-      <c r="O8" s="14">
-        <v>1.4539139447099576</v>
-      </c>
-      <c r="P8" s="13">
-        <v>13675</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>9</v>
-      </c>
-      <c r="R8" s="13">
-        <v>24</v>
-      </c>
-      <c r="S8" s="14">
-        <v>1.8147790419985577</v>
-      </c>
-      <c r="T8" s="13">
-        <v>9400</v>
-      </c>
-      <c r="U8" s="12">
-        <f>(B8-J8)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="15">
-        <f>(C8-K8)^2</f>
-        <v>0.103228675427637</v>
-      </c>
-      <c r="W8" s="12">
-        <f>(B8-N8)^2</f>
-        <v>441</v>
-      </c>
-      <c r="X8" s="41">
-        <f>(C8-O8)^2</f>
-        <v>1.3272454935140789E-2</v>
-      </c>
-      <c r="Y8" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Z8" s="36">
-        <f t="shared" si="1"/>
-        <v>0.22664382397121624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.662759442733091</v>
-      </c>
-      <c r="D9" s="13">
-        <v>9750</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13">
-        <v>39</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1.5659991530066768</v>
-      </c>
-      <c r="H9" s="15">
-        <v>12775</v>
-      </c>
-      <c r="I9" s="12">
-        <v>17</v>
-      </c>
-      <c r="J9" s="13">
-        <v>19</v>
-      </c>
-      <c r="K9" s="13">
-        <v>1.86</v>
-      </c>
-      <c r="L9" s="15">
-        <v>8275</v>
-      </c>
-      <c r="M9" s="12">
-        <v>18</v>
-      </c>
-      <c r="N9" s="13">
-        <v>30</v>
-      </c>
-      <c r="O9" s="14">
-        <v>1.8636221604626391</v>
-      </c>
-      <c r="P9" s="13">
-        <v>9000</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>6</v>
-      </c>
-      <c r="R9" s="13">
-        <v>29</v>
-      </c>
-      <c r="S9" s="14">
-        <v>1.7375626797161705</v>
-      </c>
-      <c r="T9" s="13">
-        <v>10525</v>
-      </c>
-      <c r="U9" s="12">
-        <f>(B9-J9)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
-        <f>(C9-K9)^2</f>
-        <v>3.8903837430960868E-2</v>
-      </c>
-      <c r="W9" s="12">
-        <f>(B9-N9)^2</f>
-        <v>121</v>
-      </c>
-      <c r="X9" s="41">
-        <f>(C9-O9)^2</f>
-        <v>4.0345831373700125E-2</v>
-      </c>
-      <c r="Y9" s="12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="Z9" s="36">
-        <f t="shared" si="1"/>
-        <v>5.5955242631467615E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
-        <v>20</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2.598744835539557</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="12">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13">
-        <v>33</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1.9747705998072842</v>
-      </c>
-      <c r="H10" s="15">
-        <v>11425</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13">
-        <v>20</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1.89</v>
-      </c>
-      <c r="L10" s="15">
-        <v>8500</v>
-      </c>
-      <c r="M10" s="12">
-        <v>7</v>
-      </c>
-      <c r="N10" s="13">
-        <v>39</v>
-      </c>
-      <c r="O10" s="14">
-        <v>1.5659991530066768</v>
-      </c>
-      <c r="P10" s="13">
-        <v>12775</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>17</v>
-      </c>
-      <c r="R10" s="13">
-        <v>19</v>
-      </c>
-      <c r="S10" s="14">
-        <v>1.8595863891608966</v>
-      </c>
-      <c r="T10" s="13">
-        <v>8275</v>
-      </c>
-      <c r="U10" s="12">
-        <f>(B10-J10)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
-        <f>(C10-K10)^2</f>
-        <v>0.50231924190399391</v>
-      </c>
-      <c r="W10" s="12">
-        <f>(B10-N10)^2</f>
-        <v>361</v>
-      </c>
-      <c r="X10" s="41">
-        <f>(C10-O10)^2</f>
-        <v>1.0665636447903046</v>
-      </c>
-      <c r="Y10" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="36">
-        <f t="shared" si="1"/>
-        <v>0.54635520885291511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1.9413317247167639</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10250</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1.8147790419985577</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9400</v>
-      </c>
-      <c r="I11" s="12">
-        <v>3</v>
-      </c>
-      <c r="J11" s="13">
-        <v>21</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1.84</v>
-      </c>
-      <c r="L11" s="15">
-        <v>8725</v>
-      </c>
-      <c r="M11" s="12">
-        <v>3</v>
-      </c>
-      <c r="N11" s="13">
-        <v>21</v>
-      </c>
-      <c r="O11" s="14">
-        <v>1.837511566218393</v>
-      </c>
-      <c r="P11" s="13">
-        <v>8725</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>5</v>
-      </c>
-      <c r="R11" s="13">
-        <v>38</v>
-      </c>
-      <c r="S11" s="14">
-        <v>1.6145408563338297</v>
-      </c>
-      <c r="T11" s="13">
-        <v>12550</v>
-      </c>
-      <c r="U11" s="12">
-        <f>(B11-J11)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="15">
-        <f>(C11-K11)^2</f>
-        <v>1.0268118434073993E-2</v>
-      </c>
-      <c r="W11" s="12">
-        <f>(B11-N11)^2</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="41">
-        <f>(C11-O11)^2</f>
-        <v>1.0778625310626854E-2</v>
-      </c>
-      <c r="Y11" s="12">
-        <f t="shared" si="0"/>
-        <v>289</v>
-      </c>
-      <c r="Z11" s="36">
-        <f t="shared" si="1"/>
-        <v>0.10679227165847219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18">
-        <v>3.3740289080760242</v>
-      </c>
-      <c r="D12" s="17">
-        <v>12500</v>
-      </c>
-      <c r="E12" s="12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2.0152083863823114</v>
-      </c>
-      <c r="H12" s="15">
-        <v>10750</v>
-      </c>
-      <c r="I12" s="16">
-        <v>10</v>
-      </c>
-      <c r="J12" s="17">
-        <v>30</v>
-      </c>
-      <c r="K12" s="17">
-        <v>2.02</v>
-      </c>
-      <c r="L12" s="19">
-        <v>10750</v>
-      </c>
-      <c r="M12" s="16">
-        <v>11</v>
-      </c>
-      <c r="N12" s="17">
-        <v>33</v>
-      </c>
-      <c r="O12" s="18">
-        <v>1.644189622274975</v>
-      </c>
-      <c r="P12" s="17">
-        <v>11425</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>18</v>
-      </c>
-      <c r="R12" s="17">
-        <v>30</v>
-      </c>
-      <c r="S12" s="18">
-        <v>1.8636221604626391</v>
-      </c>
-      <c r="T12" s="17">
-        <v>9000</v>
-      </c>
-      <c r="U12" s="16">
-        <f>(B12-J12)^2</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="19">
-        <f>(C12-K12)^2</f>
-        <v>1.8333942839055504</v>
-      </c>
-      <c r="W12" s="16">
-        <f>(B12-N12)^2</f>
-        <v>9</v>
-      </c>
-      <c r="X12" s="42">
-        <f>(C12-O12)^2</f>
-        <v>2.9923439547006838</v>
-      </c>
-      <c r="Y12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="37">
-        <f t="shared" si="1"/>
-        <v>2.2813285432360439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <f>_xlfn.VAR.P(B3:B12)</f>
-        <v>24.01</v>
-      </c>
-      <c r="C13" s="1">
-        <f>_xlfn.VAR.P(C3:C12)</f>
-        <v>0.6615729701647638</v>
-      </c>
-      <c r="E13" s="12">
-        <v>11</v>
-      </c>
-      <c r="F13" s="13">
-        <v>33</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1.644189622274975</v>
-      </c>
-      <c r="H13" s="15">
-        <v>11425</v>
-      </c>
       <c r="J13">
-        <f>_xlfn.VAR.P(J3:J12)</f>
-        <v>24.01</v>
+        <f>AVERAGE(J3:J12)</f>
+        <v>24.3</v>
       </c>
       <c r="K13" s="1">
-        <f>_xlfn.VAR.P(K3:K12)</f>
-        <v>1.0123999999999999E-2</v>
+        <f>AVERAGE(K3:K12)</f>
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(L3:L12)</f>
+        <v>9467.5</v>
       </c>
       <c r="N13">
-        <f>_xlfn.VAR.P(N3:N12)</f>
-        <v>71.36</v>
+        <f>AVERAGE(N3:N12)</f>
+        <v>34.200000000000003</v>
       </c>
       <c r="O13" s="1">
-        <f>_xlfn.VAR.P(O3:O12)</f>
-        <v>2.40464468774555E-2</v>
+        <f>AVERAGE(O3:O12)</f>
+        <v>1.7559684190963263</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(P3:P12)</f>
+        <v>11520</v>
       </c>
       <c r="R13">
-        <f>_xlfn.VAR.P(R3:R12)</f>
-        <v>93.09</v>
+        <f>AVERAGE(R3:R12)</f>
+        <v>31.1</v>
       </c>
       <c r="S13" s="1">
-        <f>_xlfn.VAR.P(S3:S12)</f>
-        <v>1.9370906690393069E-2</v>
-      </c>
-      <c r="U13" s="29" t="s">
+        <f>AVERAGE(S3:S12)</f>
+        <v>1.7380008145858139</v>
+      </c>
+      <c r="T13">
+        <f>AVERAGE(T3:T12)</f>
+        <v>10822.5</v>
+      </c>
+      <c r="U13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="11">
         <f>SUM(U3:V12)</f>
         <v>8.9865450413263748</v>
       </c>
-      <c r="W13" s="29" t="s">
+      <c r="W13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="23">
         <f>SUM(W3:X12)</f>
         <v>2093.6518545671252</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13" s="24">
         <f>SUM(Y3:Z12)</f>
         <v>1058.1137407724179</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>12</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14">
         <v>36</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="1">
         <v>1.695532517371394</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="7">
         <v>12100</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>13</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15">
         <v>22</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="1">
         <v>1.662291385973246</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="7">
         <v>8950</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>14</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16">
         <v>18</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="1">
         <v>1.8942354756377815</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="7">
         <v>8050</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>15</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17">
         <v>43</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="1">
         <v>1.4539139447099576</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="7">
         <v>13675</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>16</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18">
         <v>39</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="1">
         <v>1.8831909130059583</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="7">
         <v>12775</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>17</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="1">
         <v>1.8595863891608966</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="7">
         <v>8275</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>18</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20">
         <v>30</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="1">
         <v>1.8636221604626391</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="7">
         <v>9000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>19</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21">
         <v>51</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="1">
         <v>1.9645089981485191</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="7">
         <v>15475</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="16">
+      <c r="E22" s="8">
         <v>20</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="9">
         <v>48</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="10">
         <v>1.868726871191231</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="11">
         <v>14800</v>
       </c>
     </row>
@@ -4307,13 +4732,35 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>AVERAGE(D3:D12)-AVERAGE(L3:L12)</f>
         <v>1607.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>D13-P13</f>
+        <v>-445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>D13-T13</f>
+        <v>252.5</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36857C37-1F30-AD4A-99A6-5D8EF28DF0EA}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -4340,534 +4787,531 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="13"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="1">
         <v>1.2768669668126549</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2">
         <v>9500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>29</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="1">
         <v>2.8019828173782786</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3">
         <v>12250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>24</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="1">
         <v>3.9205642309579938</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4">
         <v>11000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="43">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>27</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="1">
         <v>2.2926678508031757</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5">
         <v>11750</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="43">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>33</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="1">
         <v>2.4966702622946206</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6">
         <v>13250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="43">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="1">
         <v>1.3387078036620916</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7">
         <v>10500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="43">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="1">
         <v>1.662759442733091</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8">
         <v>9750</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="43">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="1">
         <v>2.598744835539557</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="43">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="1">
         <v>1.9413317247167639</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10">
         <v>10250</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="1">
         <v>3.3740289080760242</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11">
         <v>12500</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="1">
         <v>1.8904439599777811</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12">
         <v>8500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="43">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>27</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="1">
         <v>1.77610720900872</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13">
         <v>10075</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="43">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>21</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="1">
         <v>1.837511566218393</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14">
         <v>8725</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="43">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>39</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="1">
         <v>1.7649737959429348</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15">
         <v>12775</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="43">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>38</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="1">
         <v>1.6145408563338297</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16">
         <v>12550</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="43">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>29</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="1">
         <v>1.7375626797161705</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17">
         <v>10525</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="43">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>39</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="1">
         <v>1.5659991530066768</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18">
         <v>12775</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="43">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>33</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="1">
         <v>1.9747705998072842</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19">
         <v>11425</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="43">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>24</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="1">
         <v>1.8147790419985577</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20">
         <v>9400</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="43">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="1">
         <v>2.0152083863823114</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21">
         <v>10750</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="43">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>33</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="1">
         <v>1.644189622274975</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22">
         <v>11425</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" s="43">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>36</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="1">
         <v>1.695532517371394</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23">
         <v>12100</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24" s="43">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="1">
         <v>1.662291385973246</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24">
         <v>8950</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25">
         <v>14</v>
       </c>
-      <c r="B25" s="43">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>18</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="1">
         <v>1.8942354756377815</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25">
         <v>8050</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26">
         <v>15</v>
       </c>
-      <c r="B26" s="43">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>43</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="1">
         <v>1.4539139447099576</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26">
         <v>13675</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27">
         <v>16</v>
       </c>
-      <c r="B27" s="43">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>39</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="1">
         <v>1.8831909130059583</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27">
         <v>12775</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28">
         <v>17</v>
       </c>
-      <c r="B28" s="43">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>19</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="1">
         <v>1.8595863891608966</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28">
         <v>8275</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29">
         <v>18</v>
       </c>
-      <c r="B29" s="43">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="1">
         <v>1.8636221604626391</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29">
         <v>9000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30">
         <v>19</v>
       </c>
-      <c r="B30" s="43">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>51</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="1">
         <v>1.9645089981485191</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30">
         <v>15475</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31">
         <v>20</v>
       </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>48</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="1">
         <v>1.868726871191231</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31">
         <v>14800</v>
       </c>
     </row>
@@ -4876,7 +5320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB576F-07AE-9345-9BCA-5BFB12B54D5D}">
   <dimension ref="A2:L38"/>
   <sheetViews>
@@ -5733,7 +6177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E2BCE2-55F9-8C46-8EB5-FF2458DB6AC5}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -5747,19 +6191,19 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5767,19 +6211,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>18</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="14">
         <v>1.2768669668126549</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="13">
         <v>9500</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5787,19 +6231,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <v>29</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="1">
         <v>2.8019828173782786</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3">
         <v>12250</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
@@ -5807,19 +6251,19 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>24</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="1">
         <v>3.9205642309579938</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4">
         <v>11000</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
@@ -5827,19 +6271,19 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>27</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="1">
         <v>2.2926678508031757</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5">
         <v>11750</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
@@ -5847,19 +6291,19 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>33</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="1">
         <v>2.4966702622946206</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6">
         <v>13250</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
@@ -5867,19 +6311,19 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="1">
         <v>1.3387078036620916</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7">
         <v>10500</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
@@ -5887,19 +6331,19 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="1">
         <v>1.662759442733091</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8">
         <v>9750</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8">
         <v>7</v>
       </c>
     </row>
@@ -5907,19 +6351,19 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="1">
         <v>2.598744835539557</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9">
         <v>10000</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9">
         <v>8</v>
       </c>
     </row>
@@ -5927,19 +6371,19 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="1">
         <v>1.9413317247167639</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10">
         <v>10250</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
@@ -5947,19 +6391,19 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="9">
         <v>30</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <v>3.3740289080760242</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="9">
         <v>12500</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="9">
         <v>10</v>
       </c>
     </row>
@@ -5967,19 +6411,19 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12">
         <v>18</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12">
         <v>1.89</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="7">
         <v>8050</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5987,19 +6431,19 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13">
         <v>29</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13">
         <v>1.74</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="7">
         <v>10525</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
@@ -6007,19 +6451,19 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>24</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14">
         <v>1.81</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="7">
         <v>9400</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
@@ -6027,19 +6471,19 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15">
         <v>1.78</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="7">
         <v>10075</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15">
         <v>4</v>
       </c>
     </row>
@@ -6047,19 +6491,19 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>8</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>33</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16">
         <v>1.97</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="7">
         <v>11425</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16">
         <v>5</v>
       </c>
     </row>
@@ -6067,19 +6511,19 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="6">
         <v>13</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17">
         <v>1.66</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="7">
         <v>8950</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17">
         <v>6</v>
       </c>
     </row>
@@ -6087,19 +6531,19 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18">
         <v>1.86</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="7">
         <v>8275</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18">
         <v>7</v>
       </c>
     </row>
@@ -6107,19 +6551,19 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19">
         <v>1.89</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="7">
         <v>8500</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19">
         <v>8</v>
       </c>
     </row>
@@ -6127,19 +6571,19 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20">
         <v>1.84</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="7">
         <v>8725</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20">
         <v>9</v>
       </c>
     </row>
@@ -6147,19 +6591,19 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="8">
         <v>10</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="9">
         <v>30</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="9">
         <v>2.02</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="11">
         <v>10750</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="9">
         <v>10</v>
       </c>
     </row>
